--- a/FieryLedLampMultilingual/Language.xlsx
+++ b/FieryLedLampMultilingual/Language.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="150" yWindow="615" windowWidth="28455" windowHeight="11445"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Лист3" sheetId="3" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$M$150</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_02F08554_2E03_4827_AA05_82E0997FBBA8_.wvu.FilterData">'Лист1'!$A$2:$K$150</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3A6F2CDC_256D_4CA7_B8B0_EE39CA0997D0_.wvu.FilterData">'Лист1'!$A$1:$K$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$M$150</definedName>
+    <definedName name="Z_02F08554_2E03_4827_AA05_82E0997FBBA8_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$2:$K$150</definedName>
+    <definedName name="Z_3A6F2CDC_256D_4CA7_B8B0_EE39CA0997D0_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$K$150</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" name="Фильтр 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" name="Фильтр 2"/>
+    <customWorkbookView name="Фильтр 2" guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Фильтр 1" guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -1219,9 +1223,6 @@
     <t>The maximum matrix current</t>
   </si>
   <si>
-    <t>Максимальный ток матрицы</t>
-  </si>
-  <si>
     <t>La corriente de matriz máxima</t>
   </si>
   <si>
@@ -2012,25 +2013,29 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>Максимальний струм матриці</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -2040,7 +2045,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2086,7 +2091,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2097,119 +2108,99 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2399,36 +2390,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="77.86"/>
-    <col customWidth="1" min="3" max="3" width="93.14"/>
-    <col customWidth="1" min="4" max="6" width="88.86"/>
-    <col customWidth="1" min="7" max="7" width="4.14"/>
-    <col customWidth="1" min="8" max="8" width="106.14"/>
-    <col customWidth="1" min="9" max="9" width="118.29"/>
-    <col customWidth="1" min="10" max="10" width="45.0"/>
-    <col customWidth="1" min="11" max="11" width="55.29"/>
-    <col customWidth="1" min="12" max="12" width="57.29"/>
-    <col customWidth="1" min="13" max="28" width="8.71"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+    <col min="3" max="3" width="93.140625" customWidth="1"/>
+    <col min="4" max="6" width="88.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="106.140625" customWidth="1"/>
+    <col min="9" max="9" width="118.28515625" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+    <col min="11" max="11" width="55.28515625" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" customWidth="1"/>
+    <col min="13" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2471,7 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2513,7 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -2543,27 +2534,27 @@
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="19" t="str">
-        <f t="shared" ref="H3:H15" si="1">CONCATENATE("""",A3,"""",":","""",B3,"""",",")</f>
+        <f t="shared" ref="H3:H15" si="0">CONCATENATE("""",A3,"""",":","""",B3,"""",",")</f>
         <v>"MAIN":"Main",</v>
       </c>
       <c r="I3" s="21" t="str">
-        <f t="shared" ref="I3:I15" si="2">CONCATENATE("""",A3,"""",":","""",C3,"""",",")</f>
+        <f t="shared" ref="I3:I15" si="1">CONCATENATE("""",A3,"""",":","""",C3,"""",",")</f>
         <v>"MAIN":"Головна",</v>
       </c>
       <c r="J3" s="19" t="str">
-        <f t="shared" ref="J3:J15" si="3">CONCATENATE("""",A3,"""",":","""",D3,"""",",")</f>
+        <f t="shared" ref="J3:J15" si="2">CONCATENATE("""",A3,"""",":","""",D3,"""",",")</f>
         <v>"MAIN":"Principal",</v>
       </c>
       <c r="K3" s="19" t="str">
-        <f t="shared" ref="K3:K15" si="4">CONCATENATE("""",A3,"""",":","""",E3,"""",",")</f>
+        <f t="shared" ref="K3:K15" si="3">CONCATENATE("""",A3,"""",":","""",E3,"""",",")</f>
         <v>"MAIN":"Główny",</v>
       </c>
       <c r="L3" s="22" t="str">
-        <f t="shared" ref="L3:L15" si="5">CONCATENATE("""",A3,"""",":","""",F3,"""",",")</f>
+        <f t="shared" ref="L3:L15" si="4">CONCATENATE("""",A3,"""",":","""",F3,"""",",")</f>
         <v>"MAIN":"Principal",</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28">
       <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
@@ -2584,27 +2575,27 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"BRIGHTNESS":"Brightness",</v>
+      </c>
+      <c r="I4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"BRIGHTNESS":"Brightness",</v>
-      </c>
-      <c r="I4" s="21" t="str">
+        <v>"BRIGHTNESS":"Яскравість",</v>
+      </c>
+      <c r="J4" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"BRIGHTNESS":"Яскравість",</v>
-      </c>
-      <c r="J4" s="19" t="str">
+        <v>"BRIGHTNESS":"Brillo",</v>
+      </c>
+      <c r="K4" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"BRIGHTNESS":"Brillo",</v>
-      </c>
-      <c r="K4" s="19" t="str">
+        <v>"BRIGHTNESS":"Jasność",</v>
+      </c>
+      <c r="L4" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"BRIGHTNESS":"Jasność",</v>
-      </c>
-      <c r="L4" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"BRIGHTNESS":"Luminosité",</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28">
       <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
@@ -2625,27 +2616,27 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"SPEED":"Speed",</v>
+      </c>
+      <c r="I5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"SPEED":"Speed",</v>
-      </c>
-      <c r="I5" s="21" t="str">
+        <v>"SPEED":"Швидкість",</v>
+      </c>
+      <c r="J5" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"SPEED":"Швидкість",</v>
-      </c>
-      <c r="J5" s="19" t="str">
+        <v>"SPEED":"Velocidad",</v>
+      </c>
+      <c r="K5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"SPEED":"Velocidad",</v>
-      </c>
-      <c r="K5" s="19" t="str">
+        <v>"SPEED":"Prędkość",</v>
+      </c>
+      <c r="L5" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"SPEED":"Prędkość",</v>
-      </c>
-      <c r="L5" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"SPEED":"La rapidité",</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28">
       <c r="A6" s="19" t="s">
         <v>30</v>
       </c>
@@ -2666,27 +2657,27 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"SCALE":"Scale / Color",</v>
+      </c>
+      <c r="I6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"SCALE":"Scale / Color",</v>
-      </c>
-      <c r="I6" s="21" t="str">
+        <v>"SCALE":"Масштаб / Колір",</v>
+      </c>
+      <c r="J6" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"SCALE":"Масштаб / Колір",</v>
-      </c>
-      <c r="J6" s="19" t="str">
+        <v>"SCALE":"Escala / Color",</v>
+      </c>
+      <c r="K6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"SCALE":"Escala / Color",</v>
-      </c>
-      <c r="K6" s="19" t="str">
+        <v>"SCALE":"Skala/kolor",</v>
+      </c>
+      <c r="L6" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"SCALE":"Skala/kolor",</v>
-      </c>
-      <c r="L6" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"SCALE":"Echelle / Couleur",</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28">
       <c r="A7" s="19" t="s">
         <v>36</v>
       </c>
@@ -2707,27 +2698,27 @@
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"CUR_EFF_SET":"Setting the current effect",</v>
+      </c>
+      <c r="I7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"CUR_EFF_SET":"Setting the current effect",</v>
-      </c>
-      <c r="I7" s="21" t="str">
+        <v>"CUR_EFF_SET":"Налаштування поточного ефекту",</v>
+      </c>
+      <c r="J7" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"CUR_EFF_SET":"Налаштування поточного ефекту",</v>
-      </c>
-      <c r="J7" s="19" t="str">
+        <v>"CUR_EFF_SET":"Ajuste del efecto actual",</v>
+      </c>
+      <c r="K7" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"CUR_EFF_SET":"Ajuste del efecto actual",</v>
-      </c>
-      <c r="K7" s="19" t="str">
+        <v>"CUR_EFF_SET":"Ustawianie bieżącego efektu",</v>
+      </c>
+      <c r="L7" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"CUR_EFF_SET":"Ustawianie bieżącego efektu",</v>
-      </c>
-      <c r="L7" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"CUR_EFF_SET":"Réglage de l'effet actuel",</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28">
       <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
@@ -2748,27 +2739,27 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"DEFAULT":"Default",</v>
+      </c>
+      <c r="I8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"DEFAULT":"Default",</v>
-      </c>
-      <c r="I8" s="21" t="str">
+        <v>"DEFAULT":"За замовчуванням",</v>
+      </c>
+      <c r="J8" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"DEFAULT":"За замовчуванням",</v>
-      </c>
-      <c r="J8" s="19" t="str">
+        <v>"DEFAULT":"Defecto",</v>
+      </c>
+      <c r="K8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"DEFAULT":"Defecto",</v>
-      </c>
-      <c r="K8" s="19" t="str">
+        <v>"DEFAULT":"Domyślna",</v>
+      </c>
+      <c r="L8" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"DEFAULT":"Domyślna",</v>
-      </c>
-      <c r="L8" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"DEFAULT":"Défaut",</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28">
       <c r="A9" s="19" t="s">
         <v>48</v>
       </c>
@@ -2789,27 +2780,27 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"RANDOM":"Random",</v>
+      </c>
+      <c r="I9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"RANDOM":"Random",</v>
-      </c>
-      <c r="I9" s="21" t="str">
+        <v>"RANDOM":"Випадкові",</v>
+      </c>
+      <c r="J9" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"RANDOM":"Випадкові",</v>
-      </c>
-      <c r="J9" s="19" t="str">
+        <v>"RANDOM":"Aleatorio",</v>
+      </c>
+      <c r="K9" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"RANDOM":"Aleatorio",</v>
-      </c>
-      <c r="K9" s="19" t="str">
+        <v>"RANDOM":"Losowy",</v>
+      </c>
+      <c r="L9" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"RANDOM":"Losowy",</v>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"RANDOM":"Aléatoire",</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28">
       <c r="A10" s="19" t="s">
         <v>54</v>
       </c>
@@ -2830,27 +2821,27 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"USER_SET":"User settings",</v>
+      </c>
+      <c r="I10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"USER_SET":"User settings",</v>
-      </c>
-      <c r="I10" s="21" t="str">
+        <v>"USER_SET":"Налаштування користувача",</v>
+      </c>
+      <c r="J10" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"USER_SET":"Налаштування користувача",</v>
-      </c>
-      <c r="J10" s="19" t="str">
+        <v>"USER_SET":"Ajustes de usuario",</v>
+      </c>
+      <c r="K10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"USER_SET":"Ajustes de usuario",</v>
-      </c>
-      <c r="K10" s="19" t="str">
+        <v>"USER_SET":"Ustawienia użytkownika",</v>
+      </c>
+      <c r="L10" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"USER_SET":"Ustawienia użytkownika",</v>
-      </c>
-      <c r="L10" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"USER_SET":"Paramètres utilisateur",</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28">
       <c r="A11" s="19" t="s">
         <v>60</v>
       </c>
@@ -2871,27 +2862,27 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"INIT_SET":"Initial settings",</v>
+      </c>
+      <c r="I11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"INIT_SET":"Initial settings",</v>
-      </c>
-      <c r="I11" s="21" t="str">
+        <v>"INIT_SET":"Початкові установки",</v>
+      </c>
+      <c r="J11" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"INIT_SET":"Початкові установки",</v>
-      </c>
-      <c r="J11" s="19" t="str">
+        <v>"INIT_SET":"Ajustes iniciales",</v>
+      </c>
+      <c r="K11" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"INIT_SET":"Ajustes iniciales",</v>
-      </c>
-      <c r="K11" s="19" t="str">
+        <v>"INIT_SET":"Ustawienia początkowe",</v>
+      </c>
+      <c r="L11" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"INIT_SET":"Ustawienia początkowe",</v>
-      </c>
-      <c r="L11" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"INIT_SET":"Paramètres initiaux",</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28">
       <c r="A12" s="19" t="s">
         <v>66</v>
       </c>
@@ -2912,27 +2903,27 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"SOUND_ON":"Turn on the sound",</v>
+      </c>
+      <c r="I12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"SOUND_ON":"Turn on the sound",</v>
-      </c>
-      <c r="I12" s="21" t="str">
+        <v>"SOUND_ON":"Увімкнути звук",</v>
+      </c>
+      <c r="J12" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"SOUND_ON":"Увімкнути звук",</v>
-      </c>
-      <c r="J12" s="19" t="str">
+        <v>"SOUND_ON":"enciende el sonido",</v>
+      </c>
+      <c r="K12" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"SOUND_ON":"enciende el sonido",</v>
-      </c>
-      <c r="K12" s="19" t="str">
+        <v>"SOUND_ON":"Włącz dźwięk",</v>
+      </c>
+      <c r="L12" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"SOUND_ON":"Włącz dźwięk",</v>
-      </c>
-      <c r="L12" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"SOUND_ON":"Allume le son",</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28">
       <c r="A13" s="19" t="s">
         <v>72</v>
       </c>
@@ -2953,27 +2944,27 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"S_VOLUM":"Sound Volum",</v>
+      </c>
+      <c r="I13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"S_VOLUM":"Sound Volum",</v>
-      </c>
-      <c r="I13" s="21" t="str">
+        <v>"S_VOLUM":"Гучність",</v>
+      </c>
+      <c r="J13" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"S_VOLUM":"Гучність",</v>
-      </c>
-      <c r="J13" s="19" t="str">
+        <v>"S_VOLUM":"Volumen de sonido",</v>
+      </c>
+      <c r="K13" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"S_VOLUM":"Volumen de sonido",</v>
-      </c>
-      <c r="K13" s="19" t="str">
+        <v>"S_VOLUM":"Głośność dźwięku",</v>
+      </c>
+      <c r="L13" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"S_VOLUM":"Głośność dźwięku",</v>
-      </c>
-      <c r="L13" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"S_VOLUM":"Volume sonore",</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28">
       <c r="A14" s="19" t="s">
         <v>78</v>
       </c>
@@ -2994,27 +2985,27 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"FOLDER":"Folder",</v>
+      </c>
+      <c r="I14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"FOLDER":"Folder",</v>
-      </c>
-      <c r="I14" s="21" t="str">
+        <v>"FOLDER":"Папка",</v>
+      </c>
+      <c r="J14" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"FOLDER":"Папка",</v>
-      </c>
-      <c r="J14" s="19" t="str">
+        <v>"FOLDER":"Carpeta",</v>
+      </c>
+      <c r="K14" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"FOLDER":"Carpeta",</v>
-      </c>
-      <c r="K14" s="19" t="str">
+        <v>"FOLDER":"Teczka",</v>
+      </c>
+      <c r="L14" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"FOLDER":"Teczka",</v>
-      </c>
-      <c r="L14" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"FOLDER":"Dossier",</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28">
       <c r="A15" s="19" t="s">
         <v>84</v>
       </c>
@@ -3035,27 +3026,27 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>"ALT_PANEL":"Alternative control panel",</v>
+      </c>
+      <c r="I15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>"ALT_PANEL":"Alternative control panel",</v>
-      </c>
-      <c r="I15" s="21" t="str">
+        <v>"ALT_PANEL":"Альтернативна панель керування",</v>
+      </c>
+      <c r="J15" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>"ALT_PANEL":"Альтернативна панель керування",</v>
-      </c>
-      <c r="J15" s="19" t="str">
+        <v>"ALT_PANEL":"Panel de control alternativo",</v>
+      </c>
+      <c r="K15" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>"ALT_PANEL":"Panel de control alternativo",</v>
-      </c>
-      <c r="K15" s="19" t="str">
+        <v>"ALT_PANEL":"Alternatywny panel sterowania",</v>
+      </c>
+      <c r="L15" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"ALT_PANEL":"Alternatywny panel sterowania",</v>
-      </c>
-      <c r="L15" s="22" t="str">
-        <f t="shared" si="5"/>
         <v>"ALT_PANEL":"Panneau de contrôle alternatif",</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3066,7 +3057,7 @@
       <c r="H16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12">
       <c r="A17" s="19" t="s">
         <v>90</v>
       </c>
@@ -3087,27 +3078,27 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="19" t="str">
-        <f t="shared" ref="H17:H19" si="6">CONCATENATE("""",A17,"""",":","""",B17,"""",",")</f>
+        <f t="shared" ref="H17:H19" si="5">CONCATENATE("""",A17,"""",":","""",B17,"""",",")</f>
         <v>"LAMP_OFF_ON":"'Lamp OFF':'Lamp ON'",</v>
       </c>
       <c r="I17" s="21" t="str">
-        <f t="shared" ref="I17:I19" si="7">CONCATENATE("""",A17,"""",":","""",C17,"""",",")</f>
+        <f t="shared" ref="I17:I19" si="6">CONCATENATE("""",A17,"""",":","""",C17,"""",",")</f>
         <v>"LAMP_OFF_ON":"'Лампа ВІДКЛ':'Лампа ВКЛ'",</v>
       </c>
       <c r="J17" s="19" t="str">
-        <f t="shared" ref="J17:J19" si="8">CONCATENATE("""",A17,"""",":","""",D17,"""",",")</f>
+        <f t="shared" ref="J17:J19" si="7">CONCATENATE("""",A17,"""",":","""",D17,"""",",")</f>
         <v>"LAMP_OFF_ON":" 'Lámpara APAGADA': 'Lámpara ENCENDIDA'",</v>
       </c>
       <c r="K17" s="19" t="str">
-        <f t="shared" ref="K17:K19" si="9">CONCATENATE("""",A17,"""",":","""",E17,"""",",")</f>
+        <f t="shared" ref="K17:K19" si="8">CONCATENATE("""",A17,"""",":","""",E17,"""",",")</f>
         <v>"LAMP_OFF_ON":" 'Lampa wyłączona':'Lampa włączona'",</v>
       </c>
       <c r="L17" s="22" t="str">
-        <f t="shared" ref="L17:L19" si="10">CONCATENATE("""",A17,"""",":","""",F17,"""",",")</f>
+        <f t="shared" ref="L17:L19" si="9">CONCATENATE("""",A17,"""",":","""",F17,"""",",")</f>
         <v>"LAMP_OFF_ON":" 'Lampe éteinte' : 'Lampe allumée'",</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12">
       <c r="A18" s="19" t="s">
         <v>96</v>
       </c>
@@ -3128,27 +3119,27 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>"CYCLE_OFF_ON":"'Cycle OFF':'Cycle ON'",</v>
+      </c>
+      <c r="I18" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>"CYCLE_OFF_ON":"'Cycle OFF':'Cycle ON'",</v>
-      </c>
-      <c r="I18" s="21" t="str">
+        <v>"CYCLE_OFF_ON":"'Цикл ВІДКЛ':'Цикл ВКЛ'",</v>
+      </c>
+      <c r="J18" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>"CYCLE_OFF_ON":"'Цикл ВІДКЛ':'Цикл ВКЛ'",</v>
-      </c>
-      <c r="J18" s="19" t="str">
+        <v>"CYCLE_OFF_ON":" 'Ciclo APAGADO': 'Ciclo ENCENDIDO'",</v>
+      </c>
+      <c r="K18" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>"CYCLE_OFF_ON":" 'Ciclo APAGADO': 'Ciclo ENCENDIDO'",</v>
-      </c>
-      <c r="K18" s="19" t="str">
+        <v>"CYCLE_OFF_ON":" 'Cykl WYŁ': 'Cykl WŁ'",</v>
+      </c>
+      <c r="L18" s="22" t="str">
         <f t="shared" si="9"/>
-        <v>"CYCLE_OFF_ON":" 'Cykl WYŁ': 'Cykl WŁ'",</v>
-      </c>
-      <c r="L18" s="22" t="str">
-        <f t="shared" si="10"/>
         <v>"CYCLE_OFF_ON":" 'Cycle OFF':'Cycle ON'",</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12">
       <c r="A19" s="19" t="s">
         <v>102</v>
       </c>
@@ -3169,27 +3160,27 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>"OTHER_USE_SET":"Other user settings",</v>
+      </c>
+      <c r="I19" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>"OTHER_USE_SET":"Other user settings",</v>
-      </c>
-      <c r="I19" s="21" t="str">
+        <v>"OTHER_USE_SET":"Інші налаштування користувача",</v>
+      </c>
+      <c r="J19" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>"OTHER_USE_SET":"Інші налаштування користувача",</v>
-      </c>
-      <c r="J19" s="19" t="str">
+        <v>"OTHER_USE_SET":"Otras configuraciones de usuario",</v>
+      </c>
+      <c r="K19" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>"OTHER_USE_SET":"Otras configuraciones de usuario",</v>
-      </c>
-      <c r="K19" s="19" t="str">
+        <v>"OTHER_USE_SET":"Inne ustawienia użytkownika",</v>
+      </c>
+      <c r="L19" s="22" t="str">
         <f t="shared" si="9"/>
-        <v>"OTHER_USE_SET":"Inne ustawienia użytkownika",</v>
-      </c>
-      <c r="L19" s="22" t="str">
-        <f t="shared" si="10"/>
         <v>"OTHER_USE_SET":"Autres paramètres utilisateur",</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3200,7 +3191,7 @@
       <c r="H20" s="19"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>108</v>
       </c>
@@ -3221,27 +3212,27 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="19" t="str">
-        <f t="shared" ref="H21:H38" si="11">CONCATENATE("""",A21,"""",":","""",B21,"""",",")</f>
+        <f t="shared" ref="H21:H38" si="10">CONCATENATE("""",A21,"""",":","""",B21,"""",",")</f>
         <v>"ALARM_SET":"Setting the alarm clock 'Dawn'",</v>
       </c>
       <c r="I21" s="21" t="str">
-        <f t="shared" ref="I21:I38" si="12">CONCATENATE("""",A21,"""",":","""",C21,"""",",")</f>
+        <f t="shared" ref="I21:I38" si="11">CONCATENATE("""",A21,"""",":","""",C21,"""",",")</f>
         <v>"ALARM_SET":"Установка будильника 'Світанок'",</v>
       </c>
       <c r="J21" s="19" t="str">
-        <f t="shared" ref="J21:J38" si="13">CONCATENATE("""",A21,"""",":","""",D21,"""",",")</f>
+        <f t="shared" ref="J21:J38" si="12">CONCATENATE("""",A21,"""",":","""",D21,"""",",")</f>
         <v>"ALARM_SET":"Configuración del despertador 'Amanecer'",</v>
       </c>
       <c r="K21" s="19" t="str">
-        <f t="shared" ref="K21:K38" si="14">CONCATENATE("""",A21,"""",":","""",E21,"""",",")</f>
+        <f t="shared" ref="K21:K38" si="13">CONCATENATE("""",A21,"""",":","""",E21,"""",",")</f>
         <v>"ALARM_SET":"Ustawianie budzika „Świt”",</v>
       </c>
       <c r="L21" s="22" t="str">
-        <f t="shared" ref="L21:L38" si="15">CONCATENATE("""",A21,"""",":","""",F21,"""",",")</f>
+        <f t="shared" ref="L21:L38" si="14">CONCATENATE("""",A21,"""",":","""",F21,"""",",")</f>
         <v>"ALARM_SET":"Réglage du réveil 'Dawn'",</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>114</v>
       </c>
@@ -3262,27 +3253,27 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"BACK":"Back",</v>
+      </c>
+      <c r="I22" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"BACK":"Back",</v>
-      </c>
-      <c r="I22" s="21" t="str">
+        <v>"BACK":"Назад",</v>
+      </c>
+      <c r="J22" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"BACK":"Назад",</v>
-      </c>
-      <c r="J22" s="19" t="str">
+        <v>"BACK":"atrás",</v>
+      </c>
+      <c r="K22" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"BACK":"atrás",</v>
-      </c>
-      <c r="K22" s="19" t="str">
+        <v>"BACK":"Z powrotem",</v>
+      </c>
+      <c r="L22" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"BACK":"Z powrotem",</v>
-      </c>
-      <c r="L22" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"BACK":"Retour",</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>120</v>
       </c>
@@ -3303,27 +3294,27 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"MON":"Monday",</v>
+      </c>
+      <c r="I23" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"MON":"Monday",</v>
-      </c>
-      <c r="I23" s="21" t="str">
+        <v>"MON":"Понеділок",</v>
+      </c>
+      <c r="J23" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"MON":"Понеділок",</v>
-      </c>
-      <c r="J23" s="19" t="str">
+        <v>"MON":"Lunes",</v>
+      </c>
+      <c r="K23" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"MON":"Lunes",</v>
-      </c>
-      <c r="K23" s="19" t="str">
+        <v>"MON":"Poniedziałek",</v>
+      </c>
+      <c r="L23" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"MON":"Poniedziałek",</v>
-      </c>
-      <c r="L23" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"MON":"Lundi",</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>126</v>
       </c>
@@ -3344,27 +3335,27 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"TUES":"Tuesday",</v>
+      </c>
+      <c r="I24" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"TUES":"Tuesday",</v>
-      </c>
-      <c r="I24" s="21" t="str">
+        <v>"TUES":"Вівторок",</v>
+      </c>
+      <c r="J24" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"TUES":"Вівторок",</v>
-      </c>
-      <c r="J24" s="19" t="str">
+        <v>"TUES":"martes",</v>
+      </c>
+      <c r="K24" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"TUES":"martes",</v>
-      </c>
-      <c r="K24" s="19" t="str">
+        <v>"TUES":"Wtorek",</v>
+      </c>
+      <c r="L24" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"TUES":"Wtorek",</v>
-      </c>
-      <c r="L24" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"TUES":"Mardi",</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>132</v>
       </c>
@@ -3385,27 +3376,27 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"WEDNES":"Wednesday",</v>
+      </c>
+      <c r="I25" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"WEDNES":"Wednesday",</v>
-      </c>
-      <c r="I25" s="21" t="str">
+        <v>"WEDNES":"Середа",</v>
+      </c>
+      <c r="J25" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"WEDNES":"Середа",</v>
-      </c>
-      <c r="J25" s="19" t="str">
+        <v>"WEDNES":"miércoles",</v>
+      </c>
+      <c r="K25" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"WEDNES":"miércoles",</v>
-      </c>
-      <c r="K25" s="19" t="str">
+        <v>"WEDNES":"Środa",</v>
+      </c>
+      <c r="L25" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"WEDNES":"Środa",</v>
-      </c>
-      <c r="L25" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"WEDNES":"Mercredi",</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>138</v>
       </c>
@@ -3426,27 +3417,27 @@
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"STHURS":"Thursday",</v>
+      </c>
+      <c r="I26" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"STHURS":"Thursday",</v>
-      </c>
-      <c r="I26" s="21" t="str">
+        <v>"STHURS":"Четвер",</v>
+      </c>
+      <c r="J26" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"STHURS":"Четвер",</v>
-      </c>
-      <c r="J26" s="19" t="str">
+        <v>"STHURS":"jueves",</v>
+      </c>
+      <c r="K26" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"STHURS":"jueves",</v>
-      </c>
-      <c r="K26" s="19" t="str">
+        <v>"STHURS":"Czwartek",</v>
+      </c>
+      <c r="L26" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"STHURS":"Czwartek",</v>
-      </c>
-      <c r="L26" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"STHURS":"Jeudi",</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>144</v>
       </c>
@@ -3467,27 +3458,27 @@
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"FRI":"Friday",</v>
+      </c>
+      <c r="I27" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"FRI":"Friday",</v>
-      </c>
-      <c r="I27" s="21" t="str">
+        <v>"FRI":"П'ятниця",</v>
+      </c>
+      <c r="J27" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"FRI":"П'ятниця",</v>
-      </c>
-      <c r="J27" s="19" t="str">
+        <v>"FRI":"Viernes",</v>
+      </c>
+      <c r="K27" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"FRI":"Viernes",</v>
-      </c>
-      <c r="K27" s="19" t="str">
+        <v>"FRI":"Piątek",</v>
+      </c>
+      <c r="L27" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"FRI":"Piątek",</v>
-      </c>
-      <c r="L27" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"FRI":"Vendredi",</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>150</v>
       </c>
@@ -3508,27 +3499,27 @@
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"SATUR":"Saturday",</v>
+      </c>
+      <c r="I28" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"SATUR":"Saturday",</v>
-      </c>
-      <c r="I28" s="21" t="str">
+        <v>"SATUR":"Субота",</v>
+      </c>
+      <c r="J28" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"SATUR":"Субота",</v>
-      </c>
-      <c r="J28" s="19" t="str">
+        <v>"SATUR":"sábado",</v>
+      </c>
+      <c r="K28" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"SATUR":"sábado",</v>
-      </c>
-      <c r="K28" s="19" t="str">
+        <v>"SATUR":"Sobota",</v>
+      </c>
+      <c r="L28" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"SATUR":"Sobota",</v>
-      </c>
-      <c r="L28" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"SATUR":"Samedi",</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>156</v>
       </c>
@@ -3549,27 +3540,27 @@
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"SUN":"Sunday",</v>
+      </c>
+      <c r="I29" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"SUN":"Sunday",</v>
-      </c>
-      <c r="I29" s="21" t="str">
+        <v>"SUN":"Неділя",</v>
+      </c>
+      <c r="J29" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"SUN":"Неділя",</v>
-      </c>
-      <c r="J29" s="19" t="str">
+        <v>"SUN":"Domingo",</v>
+      </c>
+      <c r="K29" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"SUN":"Domingo",</v>
-      </c>
-      <c r="K29" s="19" t="str">
+        <v>"SUN":"Niedziela",</v>
+      </c>
+      <c r="L29" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"SUN":"Niedziela",</v>
-      </c>
-      <c r="L29" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"SUN":"Dimanche",</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>162</v>
       </c>
@@ -3590,27 +3581,27 @@
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"DURATION_DAWN":"Duration of 'dawn'",</v>
+      </c>
+      <c r="I30" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"DURATION_DAWN":"Duration of 'dawn'",</v>
-      </c>
-      <c r="I30" s="21" t="str">
+        <v>"DURATION_DAWN":"Тривалість 'світанку'",</v>
+      </c>
+      <c r="J30" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"DURATION_DAWN":"Тривалість 'світанку'",</v>
-      </c>
-      <c r="J30" s="19" t="str">
+        <v>"DURATION_DAWN":"Duración del 'amanecer'",</v>
+      </c>
+      <c r="K30" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"DURATION_DAWN":"Duración del 'amanecer'",</v>
-      </c>
-      <c r="K30" s="19" t="str">
+        <v>"DURATION_DAWN":"Czas trwania „świtu”",</v>
+      </c>
+      <c r="L30" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"DURATION_DAWN":"Czas trwania „świtu”",</v>
-      </c>
-      <c r="L30" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"DURATION_DAWN":"Durée de L'aube",</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>168</v>
       </c>
@@ -3631,27 +3622,27 @@
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"GLOWING_DAWN":"Glowing time after 'dawn' min",</v>
+      </c>
+      <c r="I31" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"GLOWING_DAWN":"Glowing time after 'dawn' min",</v>
-      </c>
-      <c r="I31" s="21" t="str">
+        <v>"GLOWING_DAWN":"Час світіння після 'світанку' хв.",</v>
+      </c>
+      <c r="J31" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"GLOWING_DAWN":"Час світіння після 'світанку' хв.",</v>
-      </c>
-      <c r="J31" s="19" t="str">
+        <v>"GLOWING_DAWN":"Tiempo de brillo después del minuto 'amanecer'",</v>
+      </c>
+      <c r="K31" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"GLOWING_DAWN":"Tiempo de brillo después del minuto 'amanecer'",</v>
-      </c>
-      <c r="K31" s="19" t="str">
+        <v>"GLOWING_DAWN":"Czas świecenia po „świcie” min",</v>
+      </c>
+      <c r="L31" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"GLOWING_DAWN":"Czas świecenia po „świcie” min",</v>
-      </c>
-      <c r="L31" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"GLOWING_DAWN":"Temps d'éclairement après L'aube min",</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>174</v>
       </c>
@@ -3672,27 +3663,27 @@
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"MAX_BR_DAWN":"Max. brightness of 'dawn'",</v>
+      </c>
+      <c r="I32" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"MAX_BR_DAWN":"Max. brightness of 'dawn'",</v>
-      </c>
-      <c r="I32" s="21" t="str">
+        <v>"MAX_BR_DAWN":"Макс. яскравість 'світанку'",</v>
+      </c>
+      <c r="J32" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"MAX_BR_DAWN":"Макс. яскравість 'світанку'",</v>
-      </c>
-      <c r="J32" s="19" t="str">
+        <v>"MAX_BR_DAWN":"máx. brillo de 'amanecer'",</v>
+      </c>
+      <c r="K32" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"MAX_BR_DAWN":"máx. brillo de 'amanecer'",</v>
-      </c>
-      <c r="K32" s="19" t="str">
+        <v>"MAX_BR_DAWN":"Maks. jasność „świtu”",</v>
+      </c>
+      <c r="L32" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"MAX_BR_DAWN":"Maks. jasność „świtu”",</v>
-      </c>
-      <c r="L32" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"MAX_BR_DAWN":"Max. luminosité de L'aube",</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>180</v>
       </c>
@@ -3713,27 +3704,27 @@
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"SAVE":"Save",</v>
+      </c>
+      <c r="I33" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"SAVE":"Save",</v>
-      </c>
-      <c r="I33" s="21" t="str">
+        <v>"SAVE":"Зберегти",</v>
+      </c>
+      <c r="J33" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"SAVE":"Зберегти",</v>
-      </c>
-      <c r="J33" s="19" t="str">
+        <v>"SAVE":"Ahorrar",</v>
+      </c>
+      <c r="K33" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"SAVE":"Ahorrar",</v>
-      </c>
-      <c r="K33" s="19" t="str">
+        <v>"SAVE":"Ratować",</v>
+      </c>
+      <c r="L33" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"SAVE":"Ratować",</v>
-      </c>
-      <c r="L33" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"SAVE":"sauvegarder",</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
         <v>186</v>
       </c>
@@ -3754,27 +3745,27 @@
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"ANNOUNCE_TIME_ALARM":"Announce the time with an alarm clock",</v>
+      </c>
+      <c r="I34" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"ANNOUNCE_TIME_ALARM":"Announce the time with an alarm clock",</v>
-      </c>
-      <c r="I34" s="21" t="str">
+        <v>"ANNOUNCE_TIME_ALARM":"Озвучувати час будильником",</v>
+      </c>
+      <c r="J34" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"ANNOUNCE_TIME_ALARM":"Озвучувати час будильником",</v>
-      </c>
-      <c r="J34" s="19" t="str">
+        <v>"ANNOUNCE_TIME_ALARM":"Anunciar la hora con un despertador",</v>
+      </c>
+      <c r="K34" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"ANNOUNCE_TIME_ALARM":"Anunciar la hora con un despertador",</v>
-      </c>
-      <c r="K34" s="19" t="str">
+        <v>"ANNOUNCE_TIME_ALARM":"Ogłaszaj godzinę za pomocą budzika",</v>
+      </c>
+      <c r="L34" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"ANNOUNCE_TIME_ALARM":"Ogłaszaj godzinę za pomocą budzika",</v>
-      </c>
-      <c r="L34" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"ANNOUNCE_TIME_ALARM":"Annoncer l'heure avec un réveil",</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>192</v>
       </c>
@@ -3795,27 +3786,27 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"ALM_SOUND":"Turn on the alarm sound",</v>
+      </c>
+      <c r="I35" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"ALM_SOUND":"Turn on the alarm sound",</v>
-      </c>
-      <c r="I35" s="21" t="str">
+        <v>"ALM_SOUND":"Увімкнути звук будильника",</v>
+      </c>
+      <c r="J35" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"ALM_SOUND":"Увімкнути звук будильника",</v>
-      </c>
-      <c r="J35" s="19" t="str">
+        <v>"ALM_SOUND":"Enciende el sonido de la alarma",</v>
+      </c>
+      <c r="K35" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"ALM_SOUND":"Enciende el sonido de la alarma",</v>
-      </c>
-      <c r="K35" s="19" t="str">
+        <v>"ALM_SOUND":"Włącz dźwięk alarmu",</v>
+      </c>
+      <c r="L35" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"ALM_SOUND":"Włącz dźwięk alarmu",</v>
-      </c>
-      <c r="L35" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"ALM_SOUND":"Activer le son de l'alarme",</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="19" t="s">
         <v>198</v>
       </c>
@@ -3836,27 +3827,27 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"ALM_VOLUM":"Alarm volume",</v>
+      </c>
+      <c r="I36" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"ALM_VOLUM":"Alarm volume",</v>
-      </c>
-      <c r="I36" s="21" t="str">
+        <v>"ALM_VOLUM":"Гучність будильника",</v>
+      </c>
+      <c r="J36" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"ALM_VOLUM":"Гучність будильника",</v>
-      </c>
-      <c r="J36" s="19" t="str">
+        <v>"ALM_VOLUM":"Volumen de alarma",</v>
+      </c>
+      <c r="K36" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"ALM_VOLUM":"Volumen de alarma",</v>
-      </c>
-      <c r="K36" s="19" t="str">
+        <v>"ALM_VOLUM":"Głośność alarmu",</v>
+      </c>
+      <c r="L36" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"ALM_VOLUM":"Głośność alarmu",</v>
-      </c>
-      <c r="L36" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"ALM_VOLUM":"Volume d'alarme",</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>204</v>
       </c>
@@ -3877,27 +3868,27 @@
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"ALM_FOLD":"Alarm folder",</v>
+      </c>
+      <c r="I37" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>"ALM_FOLD":"Alarm folder",</v>
-      </c>
-      <c r="I37" s="21" t="str">
+        <v>"ALM_FOLD":"Папка будильника",</v>
+      </c>
+      <c r="J37" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>"ALM_FOLD":"Папка будильника",</v>
-      </c>
-      <c r="J37" s="19" t="str">
+        <v>"ALM_FOLD":"Carpeta de alarmas",</v>
+      </c>
+      <c r="K37" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>"ALM_FOLD":"Carpeta de alarmas",</v>
-      </c>
-      <c r="K37" s="19" t="str">
+        <v>"ALM_FOLD":"Folder alarmów",</v>
+      </c>
+      <c r="L37" s="22" t="str">
         <f t="shared" si="14"/>
-        <v>"ALM_FOLD":"Folder alarmów",</v>
-      </c>
-      <c r="L37" s="22" t="str">
-        <f t="shared" si="15"/>
         <v>"ALM_FOLD":"Dossier d'alarme",</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="19" t="s">
         <v>210</v>
       </c>
@@ -3918,27 +3909,27 @@
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v>"MINUTES":"minutes",</v>
+      </c>
+      <c r="I38" s="21" t="str">
         <f t="shared" si="11"/>
+        <v>"MINUTES":"хвилин",</v>
+      </c>
+      <c r="J38" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v>"MINUTES":"minutos",</v>
+      </c>
+      <c r="K38" s="19" t="str">
+        <f t="shared" si="13"/>
+        <v>"MINUTES":"minuty",</v>
+      </c>
+      <c r="L38" s="22" t="str">
+        <f t="shared" si="14"/>
         <v>"MINUTES":"minutes",</v>
       </c>
-      <c r="I38" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v>"MINUTES":"хвилин",</v>
-      </c>
-      <c r="J38" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"MINUTES":"minutos",</v>
-      </c>
-      <c r="K38" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v>"MINUTES":"minuty",</v>
-      </c>
-      <c r="L38" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>"MINUTES":"minutes",</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3949,7 +3940,7 @@
       <c r="H39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>215</v>
       </c>
@@ -3970,27 +3961,27 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="19" t="str">
-        <f t="shared" ref="H40:H43" si="16">CONCATENATE("""",A40,"""",":","""",B40,"""",",")</f>
+        <f t="shared" ref="H40:H43" si="15">CONCATENATE("""",A40,"""",":","""",B40,"""",",")</f>
         <v>"EFF_OF_CYCLE":"Selection of 'Cycle' effects",</v>
       </c>
       <c r="I40" s="21" t="str">
-        <f t="shared" ref="I40:I43" si="17">CONCATENATE("""",A40,"""",":","""",C40,"""",",")</f>
+        <f t="shared" ref="I40:I43" si="16">CONCATENATE("""",A40,"""",":","""",C40,"""",",")</f>
         <v>"EFF_OF_CYCLE":"Вибір ефектів 'Цикл'",</v>
       </c>
       <c r="J40" s="19" t="str">
-        <f t="shared" ref="J40:J43" si="18">CONCATENATE("""",A40,"""",":","""",D40,"""",",")</f>
+        <f t="shared" ref="J40:J43" si="17">CONCATENATE("""",A40,"""",":","""",D40,"""",",")</f>
         <v>"EFF_OF_CYCLE":"Selección de efectos 'Ciclo'",</v>
       </c>
       <c r="K40" s="19" t="str">
-        <f t="shared" ref="K40:K43" si="19">CONCATENATE("""",A40,"""",":","""",E40,"""",",")</f>
+        <f t="shared" ref="K40:K43" si="18">CONCATENATE("""",A40,"""",":","""",E40,"""",",")</f>
         <v>"EFF_OF_CYCLE":"Wybór efektów „Cykl”",</v>
       </c>
       <c r="L40" s="22" t="str">
-        <f t="shared" ref="L40:L43" si="20">CONCATENATE("""",A40,"""",":","""",F40,"""",",")</f>
+        <f t="shared" ref="L40:L43" si="19">CONCATENATE("""",A40,"""",":","""",F40,"""",",")</f>
         <v>"EFF_OF_CYCLE":"Sélection des effets 'Cycle'",</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="19" t="s">
         <v>221</v>
       </c>
@@ -4011,27 +4002,27 @@
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>"OVERALL_BR":"Overall brightness",</v>
+      </c>
+      <c r="I41" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>"OVERALL_BR":"Overall brightness",</v>
-      </c>
-      <c r="I41" s="21" t="str">
+        <v>"OVERALL_BR":"Загальна яскравість",</v>
+      </c>
+      <c r="J41" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>"OVERALL_BR":"Загальна яскравість",</v>
-      </c>
-      <c r="J41" s="19" t="str">
+        <v>"OVERALL_BR":"Brillo general",</v>
+      </c>
+      <c r="K41" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>"OVERALL_BR":"Brillo general",</v>
-      </c>
-      <c r="K41" s="19" t="str">
+        <v>"OVERALL_BR":"Ogólna jasność",</v>
+      </c>
+      <c r="L41" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>"OVERALL_BR":"Ogólna jasność",</v>
-      </c>
-      <c r="L41" s="22" t="str">
-        <f t="shared" si="20"/>
         <v>"OVERALL_BR":"Luminosité globale",</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>227</v>
       </c>
@@ -4052,27 +4043,27 @@
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>"SEL_ALL":"Select all",</v>
+      </c>
+      <c r="I42" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>"SEL_ALL":"Select all",</v>
-      </c>
-      <c r="I42" s="21" t="str">
+        <v>"SEL_ALL":"Вибрати усі",</v>
+      </c>
+      <c r="J42" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>"SEL_ALL":"Вибрати усі",</v>
-      </c>
-      <c r="J42" s="19" t="str">
+        <v>"SEL_ALL":"Seleccionar todo",</v>
+      </c>
+      <c r="K42" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>"SEL_ALL":"Seleccionar todo",</v>
-      </c>
-      <c r="K42" s="19" t="str">
+        <v>"SEL_ALL":"Zaznacz wszystko",</v>
+      </c>
+      <c r="L42" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>"SEL_ALL":"Zaznacz wszystko",</v>
-      </c>
-      <c r="L42" s="22" t="str">
-        <f t="shared" si="20"/>
         <v>"SEL_ALL":"Tout sélectionner",</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
         <v>233</v>
       </c>
@@ -4093,27 +4084,27 @@
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>"CANCEL_SEL":"Cancel selection",</v>
+      </c>
+      <c r="I43" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>"CANCEL_SEL":"Cancel selection",</v>
-      </c>
-      <c r="I43" s="21" t="str">
+        <v>"CANCEL_SEL":"Скасувати вибір",</v>
+      </c>
+      <c r="J43" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>"CANCEL_SEL":"Скасувати вибір",</v>
-      </c>
-      <c r="J43" s="19" t="str">
+        <v>"CANCEL_SEL":"Cancelar selección",</v>
+      </c>
+      <c r="K43" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>"CANCEL_SEL":"Cancelar selección",</v>
-      </c>
-      <c r="K43" s="19" t="str">
+        <v>"CANCEL_SEL":"Anuluj wybór",</v>
+      </c>
+      <c r="L43" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>"CANCEL_SEL":"Anuluj wybór",</v>
-      </c>
-      <c r="L43" s="22" t="str">
-        <f t="shared" si="20"/>
         <v>"CANCEL_SEL":"Annuler la sélection",</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4124,7 +4115,7 @@
       <c r="H44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="19" t="s">
         <v>239</v>
       </c>
@@ -4145,27 +4136,27 @@
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="19" t="str">
-        <f t="shared" ref="H45:H48" si="21">CONCATENATE("""",A45,"""",":","""",B45,"""",",")</f>
+        <f t="shared" ref="H45:H48" si="20">CONCATENATE("""",A45,"""",":","""",B45,"""",",")</f>
         <v>"LAMP_FOR_SINHRO":"Lamps for synchronous control",</v>
       </c>
       <c r="I45" s="21" t="str">
-        <f t="shared" ref="I45:I48" si="22">CONCATENATE("""",A45,"""",":","""",C45,"""",",")</f>
+        <f t="shared" ref="I45:I48" si="21">CONCATENATE("""",A45,"""",":","""",C45,"""",",")</f>
         <v>"LAMP_FOR_SINHRO":"Лампи для синхронного керування",</v>
       </c>
       <c r="J45" s="19" t="str">
-        <f t="shared" ref="J45:J48" si="23">CONCATENATE("""",A45,"""",":","""",D45,"""",",")</f>
+        <f t="shared" ref="J45:J48" si="22">CONCATENATE("""",A45,"""",":","""",D45,"""",",")</f>
         <v>"LAMP_FOR_SINHRO":"Lámparas para control síncrono",</v>
       </c>
       <c r="K45" s="19" t="str">
-        <f t="shared" ref="K45:K48" si="24">CONCATENATE("""",A45,"""",":","""",E45,"""",",")</f>
+        <f t="shared" ref="K45:K48" si="23">CONCATENATE("""",A45,"""",":","""",E45,"""",",")</f>
         <v>"LAMP_FOR_SINHRO":"Lampy do sterowania synchronicznego",</v>
       </c>
       <c r="L45" s="22" t="str">
-        <f t="shared" ref="L45:L48" si="25">CONCATENATE("""",A45,"""",":","""",F45,"""",",")</f>
+        <f t="shared" ref="L45:L48" si="24">CONCATENATE("""",A45,"""",":","""",F45,"""",",")</f>
         <v>"LAMP_FOR_SINHRO":"Lampes pour contrôle synchrone",</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="19" t="s">
         <v>245</v>
       </c>
@@ -4186,27 +4177,27 @@
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>"CONTROL_LAMP":"Control the lamp",</v>
+      </c>
+      <c r="I46" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>"CONTROL_LAMP":"Control the lamp",</v>
-      </c>
-      <c r="I46" s="21" t="str">
+        <v>"CONTROL_LAMP":"Керувати лампою",</v>
+      </c>
+      <c r="J46" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>"CONTROL_LAMP":"Керувати лампою",</v>
-      </c>
-      <c r="J46" s="19" t="str">
+        <v>"CONTROL_LAMP":"controlar la lámpara",</v>
+      </c>
+      <c r="K46" s="19" t="str">
         <f t="shared" si="23"/>
-        <v>"CONTROL_LAMP":"controlar la lámpara",</v>
-      </c>
-      <c r="K46" s="19" t="str">
+        <v>"CONTROL_LAMP":"Kontroluj lampę!",</v>
+      </c>
+      <c r="L46" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>"CONTROL_LAMP":"Kontroluj lampę!",</v>
-      </c>
-      <c r="L46" s="22" t="str">
-        <f t="shared" si="25"/>
         <v>"CONTROL_LAMP":"Contrôler la lampe",</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="19" t="s">
         <v>251</v>
       </c>
@@ -4227,27 +4218,27 @@
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>"LAMP_ADDR":"lamp address",</v>
+      </c>
+      <c r="I47" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>"LAMP_ADDR":"lamp address",</v>
-      </c>
-      <c r="I47" s="21" t="str">
+        <v>"LAMP_ADDR":"адреса лампи",</v>
+      </c>
+      <c r="J47" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>"LAMP_ADDR":"адреса лампи",</v>
-      </c>
-      <c r="J47" s="19" t="str">
+        <v>"LAMP_ADDR":"dirección de la lámpara",</v>
+      </c>
+      <c r="K47" s="19" t="str">
         <f t="shared" si="23"/>
-        <v>"LAMP_ADDR":"dirección de la lámpara",</v>
-      </c>
-      <c r="K47" s="19" t="str">
+        <v>"LAMP_ADDR":"adres lampy",</v>
+      </c>
+      <c r="L47" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>"LAMP_ADDR":"adres lampy",</v>
-      </c>
-      <c r="L47" s="22" t="str">
-        <f t="shared" si="25"/>
         <v>"LAMP_ADDR":"adresse de la lampe",</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="19" t="s">
         <v>257</v>
       </c>
@@ -4268,27 +4259,27 @@
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>"COMMENT":"Comment",</v>
+      </c>
+      <c r="I48" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>"COMMENT":"Comment",</v>
-      </c>
-      <c r="I48" s="21" t="str">
+        <v>"COMMENT":"Коментар",</v>
+      </c>
+      <c r="J48" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>"COMMENT":"Коментар",</v>
-      </c>
-      <c r="J48" s="19" t="str">
+        <v>"COMMENT":"Comentario",</v>
+      </c>
+      <c r="K48" s="19" t="str">
         <f t="shared" si="23"/>
-        <v>"COMMENT":"Comentario",</v>
-      </c>
-      <c r="K48" s="19" t="str">
+        <v>"COMMENT":"Komentarz",</v>
+      </c>
+      <c r="L48" s="22" t="str">
         <f t="shared" si="24"/>
-        <v>"COMMENT":"Komentarz",</v>
-      </c>
-      <c r="L48" s="22" t="str">
-        <f t="shared" si="25"/>
         <v>"COMMENT":"Commentaire",</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -4299,7 +4290,7 @@
       <c r="H49" s="19"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>263</v>
       </c>
@@ -4320,27 +4311,27 @@
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="19" t="str">
-        <f t="shared" ref="H50:H72" si="26">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
+        <f t="shared" ref="H50:H72" si="25">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
         <v>"USE_PASS":"Use a password to access this page",</v>
       </c>
       <c r="I50" s="21" t="str">
-        <f t="shared" ref="I50:I72" si="27">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
+        <f t="shared" ref="I50:I72" si="26">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
         <v>"USE_PASS":"Використовувати пароль для доступу до цієї сторінки",</v>
       </c>
       <c r="J50" s="19" t="str">
-        <f t="shared" ref="J50:J72" si="28">CONCATENATE("""",A50,"""",":","""",D50,"""",",")</f>
+        <f t="shared" ref="J50:J72" si="27">CONCATENATE("""",A50,"""",":","""",D50,"""",",")</f>
         <v>"USE_PASS":"Utilice una contraseña para acceder a esta página",</v>
       </c>
       <c r="K50" s="19" t="str">
-        <f t="shared" ref="K50:K72" si="29">CONCATENATE("""",A50,"""",":","""",E50,"""",",")</f>
+        <f t="shared" ref="K50:K72" si="28">CONCATENATE("""",A50,"""",":","""",E50,"""",",")</f>
         <v>"USE_PASS":"Użyj hasła, aby uzyskać dostęp do tej strony",</v>
       </c>
       <c r="L50" s="22" t="str">
-        <f t="shared" ref="L50:L72" si="30">CONCATENATE("""",A50,"""",":","""",F50,"""",",")</f>
+        <f t="shared" ref="L50:L72" si="29">CONCATENATE("""",A50,"""",":","""",F50,"""",",")</f>
         <v>"USE_PASS":"Utilisez un mot de passe pour accéder à cette page",</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
         <v>269</v>
       </c>
@@ -4361,27 +4352,27 @@
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"PASS_DESCRIPTION":"We strongly recommend that you enable this option and change the access point password to your own.",</v>
+      </c>
+      <c r="I51" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"PASS_DESCRIPTION":"We strongly recommend that you enable this option and change the access point password to your own.",</v>
-      </c>
-      <c r="I51" s="21" t="str">
+        <v>"PASS_DESCRIPTION":"Настійно рекомендуємо включити цю опцію та змінити пароль точки доступу на свій.",</v>
+      </c>
+      <c r="J51" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"PASS_DESCRIPTION":"Настійно рекомендуємо включити цю опцію та змінити пароль точки доступу на свій.",</v>
-      </c>
-      <c r="J51" s="19" t="str">
+        <v>"PASS_DESCRIPTION":"Le recomendamos encarecidamente que habilite esta opción y cambie la contraseña del punto de acceso por la suya.",</v>
+      </c>
+      <c r="K51" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"PASS_DESCRIPTION":"Le recomendamos encarecidamente que habilite esta opción y cambie la contraseña del punto de acceso por la suya.",</v>
-      </c>
-      <c r="K51" s="19" t="str">
+        <v>"PASS_DESCRIPTION":"Zdecydowanie zalecamy włączenie tej opcji i zmianę hasła punktu dostępu na własne.",</v>
+      </c>
+      <c r="L51" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"PASS_DESCRIPTION":"Zdecydowanie zalecamy włączenie tej opcji i zmianę hasła punktu dostępu na własne.",</v>
-      </c>
-      <c r="L51" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"PASS_DESCRIPTION":"Nous vous recommandons vivement d'activer cette option et de remplacer le mot de passe du point d'accès par le vôtre.",</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="19" t="s">
         <v>275</v>
       </c>
@@ -4402,27 +4393,27 @@
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"USE_PASS_DESCRIPTION":"This section is password protected. Please enter the password you use for the access point.",</v>
+      </c>
+      <c r="I52" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"USE_PASS_DESCRIPTION":"This section is password protected. Please enter the password you use for the access point.",</v>
-      </c>
-      <c r="I52" s="21" t="str">
+        <v>"USE_PASS_DESCRIPTION":"Цей розділ захищений паролем. Будь ласка, введіть пароль, який ви використовуєте для точки доступу.",</v>
+      </c>
+      <c r="J52" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"USE_PASS_DESCRIPTION":"Цей розділ захищений паролем. Будь ласка, введіть пароль, який ви використовуєте для точки доступу.",</v>
-      </c>
-      <c r="J52" s="19" t="str">
+        <v>"USE_PASS_DESCRIPTION":"Esta sección está protegida con contraseña. Introduzca la contraseña que utiliza para el punto de acceso.",</v>
+      </c>
+      <c r="K52" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"USE_PASS_DESCRIPTION":"Esta sección está protegida con contraseña. Introduzca la contraseña que utiliza para el punto de acceso.",</v>
-      </c>
-      <c r="K52" s="19" t="str">
+        <v>"USE_PASS_DESCRIPTION":"Ta sekcja jest chroniona hasłem. Wprowadź hasło, którego używasz dla punktu dostępu.",</v>
+      </c>
+      <c r="L52" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"USE_PASS_DESCRIPTION":"Ta sekcja jest chroniona hasłem. Wprowadź hasło, którego używasz dla punktu dostępu.",</v>
-      </c>
-      <c r="L52" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"USE_PASS_DESCRIPTION":"Cette section est protégée par un mot de passe. Veuillez entrer le mot de passe que vous utilisez pour le point d'accès.",</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="19" t="s">
         <v>281</v>
       </c>
@@ -4443,27 +4434,27 @@
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"LangAuthorization":"Authorization",</v>
+      </c>
+      <c r="I53" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"LangAuthorization":"Authorization",</v>
-      </c>
-      <c r="I53" s="21" t="str">
+        <v>"LangAuthorization":"Авторизація",</v>
+      </c>
+      <c r="J53" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"LangAuthorization":"Авторизація",</v>
-      </c>
-      <c r="J53" s="19" t="str">
+        <v>"LangAuthorization":"Autorización",</v>
+      </c>
+      <c r="K53" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"LangAuthorization":"Autorización",</v>
-      </c>
-      <c r="K53" s="19" t="str">
+        <v>"LangAuthorization":"Upoważnienie",</v>
+      </c>
+      <c r="L53" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"LangAuthorization":"Upoważnienie",</v>
-      </c>
-      <c r="L53" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"LangAuthorization":"Autorisation",</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>287</v>
       </c>
@@ -4484,27 +4475,27 @@
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"DEVICE_NAME":"Device name",</v>
+      </c>
+      <c r="I54" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"DEVICE_NAME":"Device name",</v>
-      </c>
-      <c r="I54" s="21" t="str">
+        <v>"DEVICE_NAME":"Ім'я пристрою",</v>
+      </c>
+      <c r="J54" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"DEVICE_NAME":"Ім'я пристрою",</v>
-      </c>
-      <c r="J54" s="19" t="str">
+        <v>"DEVICE_NAME":"Nombre del dispositivo",</v>
+      </c>
+      <c r="K54" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"DEVICE_NAME":"Nombre del dispositivo",</v>
-      </c>
-      <c r="K54" s="19" t="str">
+        <v>"DEVICE_NAME":"Nazwa urządzenia",</v>
+      </c>
+      <c r="L54" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"DEVICE_NAME":"Nazwa urządzenia",</v>
-      </c>
-      <c r="L54" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"DEVICE_NAME":"Nom de l'appareil",</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="19" t="s">
         <v>293</v>
       </c>
@@ -4525,27 +4516,27 @@
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"CONN_TO_ROUTER":"Connecting to a Wi-Fi router",</v>
+      </c>
+      <c r="I55" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"CONN_TO_ROUTER":"Connecting to a Wi-Fi router",</v>
-      </c>
-      <c r="I55" s="21" t="str">
+        <v>"CONN_TO_ROUTER":"Підключення до Wi-Fi роутера",</v>
+      </c>
+      <c r="J55" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"CONN_TO_ROUTER":"Підключення до Wi-Fi роутера",</v>
-      </c>
-      <c r="J55" s="19" t="str">
+        <v>"CONN_TO_ROUTER":"Conexión a un enrutador Wi-Fi",</v>
+      </c>
+      <c r="K55" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"CONN_TO_ROUTER":"Conexión a un enrutador Wi-Fi",</v>
-      </c>
-      <c r="K55" s="19" t="str">
+        <v>"CONN_TO_ROUTER":"Łączenie z routerem Wi-Fi",</v>
+      </c>
+      <c r="L55" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"CONN_TO_ROUTER":"Łączenie z routerem Wi-Fi",</v>
-      </c>
-      <c r="L55" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"CONN_TO_ROUTER":"Connexion à un routeur Wi-Fi",</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
         <v>299</v>
       </c>
@@ -4566,27 +4557,27 @@
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"USE_ROUTER":"Use a router connection",</v>
+      </c>
+      <c r="I56" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"USE_ROUTER":"Use a router connection",</v>
-      </c>
-      <c r="I56" s="21" t="str">
+        <v>"USE_ROUTER":"Використовувати підключення до роутера",</v>
+      </c>
+      <c r="J56" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"USE_ROUTER":"Використовувати підключення до роутера",</v>
-      </c>
-      <c r="J56" s="19" t="str">
+        <v>"USE_ROUTER":"Usar una conexión de enrutador",</v>
+      </c>
+      <c r="K56" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"USE_ROUTER":"Usar una conexión de enrutador",</v>
-      </c>
-      <c r="K56" s="19" t="str">
+        <v>"USE_ROUTER":"Użyj połączenia routera",</v>
+      </c>
+      <c r="L56" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"USE_ROUTER":"Użyj połączenia routera",</v>
-      </c>
-      <c r="L56" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"USE_ROUTER":"Utiliser une connexion routeur",</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
         <v>305</v>
       </c>
@@ -4607,27 +4598,27 @@
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"NET_NAME":"Network name",</v>
+      </c>
+      <c r="I57" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"NET_NAME":"Network name",</v>
-      </c>
-      <c r="I57" s="21" t="str">
+        <v>"NET_NAME":"Ім'я мережі",</v>
+      </c>
+      <c r="J57" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"NET_NAME":"Ім'я мережі",</v>
-      </c>
-      <c r="J57" s="19" t="str">
+        <v>"NET_NAME":"Nombre de red",</v>
+      </c>
+      <c r="K57" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"NET_NAME":"Nombre de red",</v>
-      </c>
-      <c r="K57" s="19" t="str">
+        <v>"NET_NAME":"Nazwa sieci",</v>
+      </c>
+      <c r="L57" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"NET_NAME":"Nazwa sieci",</v>
-      </c>
-      <c r="L57" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"NET_NAME":"Nom de réseau",</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="19" t="s">
         <v>311</v>
       </c>
@@ -4648,27 +4639,27 @@
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"PASS":"Password",</v>
+      </c>
+      <c r="I58" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"PASS":"Password",</v>
-      </c>
-      <c r="I58" s="21" t="str">
+        <v>"PASS":"Пароль",</v>
+      </c>
+      <c r="J58" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"PASS":"Пароль",</v>
-      </c>
-      <c r="J58" s="19" t="str">
+        <v>"PASS":"Clave",</v>
+      </c>
+      <c r="K58" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"PASS":"Clave",</v>
-      </c>
-      <c r="K58" s="19" t="str">
+        <v>"PASS":"Hasło",</v>
+      </c>
+      <c r="L58" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"PASS":"Hasło",</v>
-      </c>
-      <c r="L58" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"PASS":"Mot de passe",</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
         <v>317</v>
       </c>
@@ -4689,27 +4680,27 @@
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"CONN_TIMEOUT":"Connection timeout",</v>
+      </c>
+      <c r="I59" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"CONN_TIMEOUT":"Connection timeout",</v>
-      </c>
-      <c r="I59" s="21" t="str">
+        <v>"CONN_TIMEOUT":"Таймаут з'єднання",</v>
+      </c>
+      <c r="J59" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"CONN_TIMEOUT":"Таймаут з'єднання",</v>
-      </c>
-      <c r="J59" s="19" t="str">
+        <v>"CONN_TIMEOUT":"El tiempo de conexión expiro",</v>
+      </c>
+      <c r="K59" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"CONN_TIMEOUT":"El tiempo de conexión expiro",</v>
-      </c>
-      <c r="K59" s="19" t="str">
+        <v>"CONN_TIMEOUT":"Czas połączenia minął",</v>
+      </c>
+      <c r="L59" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"CONN_TIMEOUT":"Czas połączenia minął",</v>
-      </c>
-      <c r="L59" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"CONN_TIMEOUT":"Délai de connection dépassé",</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
         <v>323</v>
       </c>
@@ -4730,27 +4721,27 @@
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"TIME_ZONE":"Time zone",</v>
+      </c>
+      <c r="I60" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"TIME_ZONE":"Time zone",</v>
-      </c>
-      <c r="I60" s="21" t="str">
+        <v>"TIME_ZONE":"Часовий пояс",</v>
+      </c>
+      <c r="J60" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"TIME_ZONE":"Часовий пояс",</v>
-      </c>
-      <c r="J60" s="19" t="str">
+        <v>"TIME_ZONE":"Zona horaria",</v>
+      </c>
+      <c r="K60" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"TIME_ZONE":"Zona horaria",</v>
-      </c>
-      <c r="K60" s="19" t="str">
+        <v>"TIME_ZONE":"Strefa czasowa",</v>
+      </c>
+      <c r="L60" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"TIME_ZONE":"Strefa czasowa",</v>
-      </c>
-      <c r="L60" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"TIME_ZONE":"Fuseau horaire",</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>329</v>
       </c>
@@ -4771,27 +4762,27 @@
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"SUMMER_TIME":"Automatic switch to summer time",</v>
+      </c>
+      <c r="I61" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"SUMMER_TIME":"Automatic switch to summer time",</v>
-      </c>
-      <c r="I61" s="21" t="str">
+        <v>"SUMMER_TIME":"Авто перехід на літній час",</v>
+      </c>
+      <c r="J61" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"SUMMER_TIME":"Авто перехід на літній час",</v>
-      </c>
-      <c r="J61" s="19" t="str">
+        <v>"SUMMER_TIME":"Cambio automático al horario de verano",</v>
+      </c>
+      <c r="K61" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"SUMMER_TIME":"Cambio automático al horario de verano",</v>
-      </c>
-      <c r="K61" s="19" t="str">
+        <v>"SUMMER_TIME":"Automatyczne przełączanie na czas letni",</v>
+      </c>
+      <c r="L61" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"SUMMER_TIME":"Automatyczne przełączanie na czas letni",</v>
-      </c>
-      <c r="L61" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"SUMMER_TIME":"Passage automatique à l'heure d'été",</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="19" t="s">
         <v>335</v>
       </c>
@@ -4812,27 +4803,27 @@
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"ON_DEVICE_NOW":"On device now",</v>
+      </c>
+      <c r="I62" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"ON_DEVICE_NOW":"On device now",</v>
-      </c>
-      <c r="I62" s="21" t="str">
+        <v>"ON_DEVICE_NOW":"На пристрої зараз",</v>
+      </c>
+      <c r="J62" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"ON_DEVICE_NOW":"На пристрої зараз",</v>
-      </c>
-      <c r="J62" s="19" t="str">
+        <v>"ON_DEVICE_NOW":"En el dispositivo ahora",</v>
+      </c>
+      <c r="K62" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"ON_DEVICE_NOW":"En el dispositivo ahora",</v>
-      </c>
-      <c r="K62" s="19" t="str">
+        <v>"ON_DEVICE_NOW":"Teraz na urządzeniu",</v>
+      </c>
+      <c r="L62" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"ON_DEVICE_NOW":"Teraz na urządzeniu",</v>
-      </c>
-      <c r="L62" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"ON_DEVICE_NOW":"Sur l'appareil maintenant",</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="19" t="s">
         <v>341</v>
       </c>
@@ -4853,27 +4844,27 @@
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"HOUR_FROM_BROWSER":"Take the hour from the browser",</v>
+      </c>
+      <c r="I63" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"HOUR_FROM_BROWSER":"Take the hour from the browser",</v>
-      </c>
-      <c r="I63" s="21" t="str">
+        <v>"HOUR_FROM_BROWSER":"Отримати час із браузера",</v>
+      </c>
+      <c r="J63" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"HOUR_FROM_BROWSER":"Отримати час із браузера",</v>
-      </c>
-      <c r="J63" s="19" t="str">
+        <v>"HOUR_FROM_BROWSER":"Tomar la hora desde el navegador",</v>
+      </c>
+      <c r="K63" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"HOUR_FROM_BROWSER":"Tomar la hora desde el navegador",</v>
-      </c>
-      <c r="K63" s="19" t="str">
+        <v>"HOUR_FROM_BROWSER":"Poświęć godzinę z przeglądarki",</v>
+      </c>
+      <c r="L63" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"HOUR_FROM_BROWSER":"Poświęć godzinę z przeglądarki",</v>
-      </c>
-      <c r="L63" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"HOUR_FROM_BROWSER":"Prendre l'heure du navigateur",</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="19" t="s">
         <v>347</v>
       </c>
@@ -4894,27 +4885,27 @@
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"NTP":"NTP server address",</v>
+      </c>
+      <c r="I64" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"NTP":"NTP server address",</v>
-      </c>
-      <c r="I64" s="21" t="str">
+        <v>"NTP":"Адреса сервера NTP",</v>
+      </c>
+      <c r="J64" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"NTP":"Адреса сервера NTP",</v>
-      </c>
-      <c r="J64" s="19" t="str">
+        <v>"NTP":"Dirección del servidor NTP",</v>
+      </c>
+      <c r="K64" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"NTP":"Dirección del servidor NTP",</v>
-      </c>
-      <c r="K64" s="19" t="str">
+        <v>"NTP":"Adres serwera NTP",</v>
+      </c>
+      <c r="L64" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"NTP":"Adres serwera NTP",</v>
-      </c>
-      <c r="L64" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"NTP":"Adresse du serveur NTP",</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="19" t="s">
         <v>353</v>
       </c>
@@ -4935,27 +4926,27 @@
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"AP":"Access point",</v>
+      </c>
+      <c r="I65" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"AP":"Access point",</v>
-      </c>
-      <c r="I65" s="21" t="str">
+        <v>"AP":"Точка доступу",</v>
+      </c>
+      <c r="J65" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"AP":"Точка доступу",</v>
-      </c>
-      <c r="J65" s="19" t="str">
+        <v>"AP":"Punto de acceso",</v>
+      </c>
+      <c r="K65" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"AP":"Punto de acceso",</v>
-      </c>
-      <c r="K65" s="19" t="str">
+        <v>"AP":"Punkt dostępu",</v>
+      </c>
+      <c r="L65" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"AP":"Punkt dostępu",</v>
-      </c>
-      <c r="L65" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"AP":"Point d'accès",</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="19" t="s">
         <v>359</v>
       </c>
@@ -4976,27 +4967,27 @@
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"AP_IP":"In access point mode, the IP address of the device",</v>
+      </c>
+      <c r="I66" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"AP_IP":"In access point mode, the IP address of the device",</v>
-      </c>
-      <c r="I66" s="21" t="str">
+        <v>"AP_IP":"У режимі точки доступу IP адреса пристрою",</v>
+      </c>
+      <c r="J66" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"AP_IP":"У режимі точки доступу IP адреса пристрою",</v>
-      </c>
-      <c r="J66" s="19" t="str">
+        <v>"AP_IP":"En el modo de punto de acceso, la dirección IP del dispositivo",</v>
+      </c>
+      <c r="K66" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"AP_IP":"En el modo de punto de acceso, la dirección IP del dispositivo",</v>
-      </c>
-      <c r="K66" s="19" t="str">
+        <v>"AP_IP":"W trybie punktu dostępu adres IP urządzenia",</v>
+      </c>
+      <c r="L66" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"AP_IP":"W trybie punktu dostępu adres IP urządzenia",</v>
-      </c>
-      <c r="L66" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"AP_IP":"En mode point d'accès, l'adresse IP de l'appareil",</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="19" t="s">
         <v>365</v>
       </c>
@@ -5017,27 +5008,27 @@
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"AP_NAME":"The name of the WI-FI network",</v>
+      </c>
+      <c r="I67" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"AP_NAME":"The name of the WI-FI network",</v>
-      </c>
-      <c r="I67" s="21" t="str">
+        <v>"AP_NAME":"Ім'я WI-FI мережі",</v>
+      </c>
+      <c r="J67" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"AP_NAME":"Ім'я WI-FI мережі",</v>
-      </c>
-      <c r="J67" s="19" t="str">
+        <v>"AP_NAME":"El nombre de la red WI-FI",</v>
+      </c>
+      <c r="K67" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"AP_NAME":"El nombre de la red WI-FI",</v>
-      </c>
-      <c r="K67" s="19" t="str">
+        <v>"AP_NAME":"Nazwa sieci WI-FI",</v>
+      </c>
+      <c r="L67" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"AP_NAME":"Nazwa sieci WI-FI",</v>
-      </c>
-      <c r="L67" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"AP_NAME":"Le nom du réseau WI-FI",</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="19" t="s">
         <v>371</v>
       </c>
@@ -5058,27 +5049,27 @@
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"REBOOTE":"Reboot the device",</v>
+      </c>
+      <c r="I68" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"REBOOTE":"Reboot the device",</v>
-      </c>
-      <c r="I68" s="21" t="str">
+        <v>"REBOOTE":"Перезавантажити пристрій",</v>
+      </c>
+      <c r="J68" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"REBOOTE":"Перезавантажити пристрій",</v>
-      </c>
-      <c r="J68" s="19" t="str">
+        <v>"REBOOTE":"Reiniciar el dispositivo",</v>
+      </c>
+      <c r="K68" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"REBOOTE":"Reiniciar el dispositivo",</v>
-      </c>
-      <c r="K68" s="19" t="str">
+        <v>"REBOOTE":"Uruchom ponownie urządzenie",</v>
+      </c>
+      <c r="L68" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"REBOOTE":"Uruchom ponownie urządzenie",</v>
-      </c>
-      <c r="L68" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"REBOOTE":"Redémarrez l'appareil",</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="19" t="s">
         <v>377</v>
       </c>
@@ -5099,27 +5090,27 @@
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"UPDATE":"Software update",</v>
+      </c>
+      <c r="I69" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"UPDATE":"Software update",</v>
-      </c>
-      <c r="I69" s="21" t="str">
+        <v>"UPDATE":"Оновлення ПЗ",</v>
+      </c>
+      <c r="J69" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"UPDATE":"Оновлення ПЗ",</v>
-      </c>
-      <c r="J69" s="19" t="str">
+        <v>"UPDATE":"Actualización de software",</v>
+      </c>
+      <c r="K69" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"UPDATE":"Actualización de software",</v>
-      </c>
-      <c r="K69" s="19" t="str">
+        <v>"UPDATE":"Aktualizacja oprogramowania",</v>
+      </c>
+      <c r="L69" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"UPDATE":"Aktualizacja oprogramowania",</v>
-      </c>
-      <c r="L69" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"UPDATE":"Mise à jour logicielle",</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="19" t="s">
         <v>383</v>
       </c>
@@ -5140,27 +5131,27 @@
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"MATRIX_TYPE":"Matrix type",</v>
+      </c>
+      <c r="I70" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"MATRIX_TYPE":"Matrix type",</v>
-      </c>
-      <c r="I70" s="21" t="str">
+        <v>"MATRIX_TYPE":"Тип матриці",</v>
+      </c>
+      <c r="J70" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"MATRIX_TYPE":"Тип матриці",</v>
-      </c>
-      <c r="J70" s="19" t="str">
+        <v>"MATRIX_TYPE":"tipo de matriz",</v>
+      </c>
+      <c r="K70" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"MATRIX_TYPE":"tipo de matriz",</v>
-      </c>
-      <c r="K70" s="19" t="str">
+        <v>"MATRIX_TYPE":"Typ matrycy",</v>
+      </c>
+      <c r="L70" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"MATRIX_TYPE":"Typ matrycy",</v>
-      </c>
-      <c r="L70" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"MATRIX_TYPE":"Type de matrice",</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="19" t="s">
         <v>389</v>
       </c>
@@ -5181,27 +5172,27 @@
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"MATRIX_ORIEN":"Matrix orientation",</v>
+      </c>
+      <c r="I71" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"MATRIX_ORIEN":"Matrix orientation",</v>
-      </c>
-      <c r="I71" s="21" t="str">
+        <v>"MATRIX_ORIEN":"Орієнтація матриці",</v>
+      </c>
+      <c r="J71" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"MATRIX_ORIEN":"Орієнтація матриці",</v>
-      </c>
-      <c r="J71" s="19" t="str">
+        <v>"MATRIX_ORIEN":"Orientación de la matriz",</v>
+      </c>
+      <c r="K71" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"MATRIX_ORIEN":"Orientación de la matriz",</v>
-      </c>
-      <c r="K71" s="19" t="str">
+        <v>"MATRIX_ORIEN":"Orientacja matrycy",</v>
+      </c>
+      <c r="L71" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"MATRIX_ORIEN":"Orientacja matrycy",</v>
-      </c>
-      <c r="L71" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"MATRIX_ORIEN":"Orientation de la matrice",</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="19" t="s">
         <v>395</v>
       </c>
@@ -5209,40 +5200,40 @@
         <v>396</v>
       </c>
       <c r="C72" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="E72" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="F72" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>400</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"MAX_CURRENT":"The maximum matrix current",</v>
+      </c>
+      <c r="I72" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"MAX_CURRENT":"The maximum matrix current",</v>
-      </c>
-      <c r="I72" s="21" t="str">
+        <v>"MAX_CURRENT":"Максимальний струм матриці",</v>
+      </c>
+      <c r="J72" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"MAX_CURRENT":"Максимальный ток матрицы",</v>
-      </c>
-      <c r="J72" s="19" t="str">
+        <v>"MAX_CURRENT":"La corriente de matriz máxima",</v>
+      </c>
+      <c r="K72" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"MAX_CURRENT":"La corriente de matriz máxima",</v>
-      </c>
-      <c r="K72" s="19" t="str">
+        <v>"MAX_CURRENT":"Maksymalny prąd matrycy",</v>
+      </c>
+      <c r="L72" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"MAX_CURRENT":"Maksymalny prąd matrycy",</v>
-      </c>
-      <c r="L72" s="22" t="str">
-        <f t="shared" si="30"/>
         <v>"MAX_CURRENT":"Le courant de matrice maximal",</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -5253,1787 +5244,1787 @@
       <c r="H73" s="19"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="D74" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="E74" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="F74" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="19" t="str">
-        <f t="shared" ref="H74:H116" si="31">CONCATENATE("""",A74,"""",":","""",B74,"""",",")</f>
+        <f t="shared" ref="H74:H116" si="30">CONCATENATE("""",A74,"""",":","""",B74,"""",",")</f>
         <v>"EFFECT":"Effect",</v>
       </c>
       <c r="I74" s="21" t="str">
-        <f t="shared" ref="I74:I116" si="32">CONCATENATE("""",A74,"""",":","""",C74,"""",",")</f>
+        <f t="shared" ref="I74:I116" si="31">CONCATENATE("""",A74,"""",":","""",C74,"""",",")</f>
         <v>"EFFECT":"Ефект",</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" ref="J74:J116" si="33">CONCATENATE("""",A74,"""",":","""",D74,"""",",")</f>
+        <f t="shared" ref="J74:J116" si="32">CONCATENATE("""",A74,"""",":","""",D74,"""",",")</f>
         <v>"EFFECT":"Efecto",</v>
       </c>
       <c r="K74" s="19" t="str">
-        <f t="shared" ref="K74:K116" si="34">CONCATENATE("""",A74,"""",":","""",E74,"""",",")</f>
+        <f t="shared" ref="K74:K116" si="33">CONCATENATE("""",A74,"""",":","""",E74,"""",",")</f>
         <v>"EFFECT":"Efekt",</v>
       </c>
       <c r="L74" s="22" t="str">
-        <f t="shared" ref="L74:L116" si="35">CONCATENATE("""",A74,"""",":","""",F74,"""",",")</f>
+        <f t="shared" ref="L74:L116" si="34">CONCATENATE("""",A74,"""",":","""",F74,"""",",")</f>
         <v>"EFFECT":"Effet",</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="C75" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="D75" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="E75" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="F75" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>412</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"SEL_EFF_CYCLE":"Select effects for Cycle",</v>
+      </c>
+      <c r="I75" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SEL_EFF_CYCLE":"Select effects for Cycle",</v>
-      </c>
-      <c r="I75" s="21" t="str">
+        <v>"SEL_EFF_CYCLE":"Вибрати ефекти для Циклу",</v>
+      </c>
+      <c r="J75" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SEL_EFF_CYCLE":"Вибрати ефекти для Циклу",</v>
-      </c>
-      <c r="J75" s="19" t="str">
+        <v>"SEL_EFF_CYCLE":"Seleccionar efectos para Ciclo",</v>
+      </c>
+      <c r="K75" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SEL_EFF_CYCLE":"Seleccionar efectos para Ciclo",</v>
-      </c>
-      <c r="K75" s="19" t="str">
+        <v>"SEL_EFF_CYCLE":"Wybierz efekty dla cyklu",</v>
+      </c>
+      <c r="L75" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SEL_EFF_CYCLE":"Wybierz efekty dla cyklu",</v>
-      </c>
-      <c r="L75" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"SEL_EFF_CYCLE":"Sélectionner les effets pour Cycle",</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="D76" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="E76" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="F76" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"CYCLE_ON":"Cycle ON",</v>
+      </c>
+      <c r="I76" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"CYCLE_ON":"Cycle ON",</v>
-      </c>
-      <c r="I76" s="21" t="str">
+        <v>"CYCLE_ON":"Вкл. Цикл",</v>
+      </c>
+      <c r="J76" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"CYCLE_ON":"Вкл. Цикл",</v>
-      </c>
-      <c r="J76" s="19" t="str">
+        <v>"CYCLE_ON":"Ciclo ENCENDIDO",</v>
+      </c>
+      <c r="K76" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"CYCLE_ON":"Ciclo ENCENDIDO",</v>
-      </c>
-      <c r="K76" s="19" t="str">
+        <v>"CYCLE_ON":"Cykl WŁ.",</v>
+      </c>
+      <c r="L76" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"CYCLE_ON":"Cykl WŁ.",</v>
-      </c>
-      <c r="L76" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"CYCLE_ON":"Cycle MARCHE",</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="D77" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="E77" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="F77" s="20" t="s">
         <v>423</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>424</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"EFF_CHANGE_TIME":"Effect change time, sec.",</v>
+      </c>
+      <c r="I77" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"EFF_CHANGE_TIME":"Effect change time, sec.",</v>
-      </c>
-      <c r="I77" s="21" t="str">
+        <v>"EFF_CHANGE_TIME":"Час зміни ефектів, сек.",</v>
+      </c>
+      <c r="J77" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"EFF_CHANGE_TIME":"Час зміни ефектів, сек.",</v>
-      </c>
-      <c r="J77" s="19" t="str">
+        <v>"EFF_CHANGE_TIME":"Tiempo de cambio de efecto, seg.",</v>
+      </c>
+      <c r="K77" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"EFF_CHANGE_TIME":"Tiempo de cambio de efecto, seg.",</v>
-      </c>
-      <c r="K77" s="19" t="str">
+        <v>"EFF_CHANGE_TIME":"Czas zmiany efektu, sek.",</v>
+      </c>
+      <c r="L77" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"EFF_CHANGE_TIME":"Czas zmiany efektu, sek.",</v>
-      </c>
-      <c r="L77" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"EFF_CHANGE_TIME":"Temps de changement d'effet, sec.",</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="D78" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="E78" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="F78" s="23" t="s">
         <v>429</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"RANDOM_TIME":"+ random time to ... sec.",</v>
+      </c>
+      <c r="I78" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"RANDOM_TIME":"+ random time to ... sec.",</v>
-      </c>
-      <c r="I78" s="21" t="str">
+        <v>"RANDOM_TIME":"+ випадковий час до ... сек.",</v>
+      </c>
+      <c r="J78" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"RANDOM_TIME":"+ випадковий час до ... сек.",</v>
-      </c>
-      <c r="J78" s="19" t="str">
+        <v>"RANDOM_TIME":". + tiempo aleatorio hasta ... seg.",</v>
+      </c>
+      <c r="K78" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"RANDOM_TIME":". + tiempo aleatorio hasta ... seg.",</v>
-      </c>
-      <c r="K78" s="19" t="str">
+        <v>"RANDOM_TIME":".+ losowy czas do ... sek.",</v>
+      </c>
+      <c r="L78" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"RANDOM_TIME":".+ losowy czas do ... sek.",</v>
-      </c>
-      <c r="L78" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"RANDOM_TIME":". + temps aléatoire à ... sec.",</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="D79" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="E79" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="F79" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"MIX_EFF":"Mix selected effects",</v>
+      </c>
+      <c r="I79" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"MIX_EFF":"Mix selected effects",</v>
-      </c>
-      <c r="I79" s="21" t="str">
+        <v>"MIX_EFF":"Перемішати вибрані ефекти",</v>
+      </c>
+      <c r="J79" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"MIX_EFF":"Перемішати вибрані ефекти",</v>
-      </c>
-      <c r="J79" s="19" t="str">
+        <v>"MIX_EFF":"Mezclar efectos seleccionados",</v>
+      </c>
+      <c r="K79" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"MIX_EFF":"Mezclar efectos seleccionados",</v>
-      </c>
-      <c r="K79" s="19" t="str">
+        <v>"MIX_EFF":"Wymieszaj wybrane efekty",</v>
+      </c>
+      <c r="L79" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"MIX_EFF":"Wymieszaj wybrane efekty",</v>
-      </c>
-      <c r="L79" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"MIX_EFF":"Mélanger les effets sélectionnés",</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="D80" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="E80" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="F80" s="20" t="s">
         <v>441</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>442</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"RANDOM_EFF_PARAM":"Random selection of effects parameters",</v>
+      </c>
+      <c r="I80" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"RANDOM_EFF_PARAM":"Random selection of effects parameters",</v>
-      </c>
-      <c r="I80" s="21" t="str">
+        <v>"RANDOM_EFF_PARAM":"Випадковий вибір параметрів ефектів",</v>
+      </c>
+      <c r="J80" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"RANDOM_EFF_PARAM":"Випадковий вибір параметрів ефектів",</v>
-      </c>
-      <c r="J80" s="19" t="str">
+        <v>"RANDOM_EFF_PARAM":"Selección aleatoria de parámetros de efectos",</v>
+      </c>
+      <c r="K80" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"RANDOM_EFF_PARAM":"Selección aleatoria de parámetros de efectos",</v>
-      </c>
-      <c r="K80" s="19" t="str">
+        <v>"RANDOM_EFF_PARAM":"Losowy wybór parametrów efektów",</v>
+      </c>
+      <c r="L80" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"RANDOM_EFF_PARAM":"Losowy wybór parametrów efektów",</v>
-      </c>
-      <c r="L80" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"RANDOM_EFF_PARAM":"Sélection aléatoire des paramètres d'effets",</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="D81" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="E81" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="F81" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>448</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"ON_CYCLE_AFTER_RESTART":"Enable Cycle after lamp restart",</v>
+      </c>
+      <c r="I81" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Enable Cycle after lamp restart",</v>
-      </c>
-      <c r="I81" s="21" t="str">
+        <v>"ON_CYCLE_AFTER_RESTART":"Увімк. Цикл після перезапуску лампи",</v>
+      </c>
+      <c r="J81" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Увімк. Цикл після перезапуску лампи",</v>
-      </c>
-      <c r="J81" s="19" t="str">
+        <v>"ON_CYCLE_AFTER_RESTART":"Habilitar ciclo después de reiniciar la lámpara",</v>
+      </c>
+      <c r="K81" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Habilitar ciclo después de reiniciar la lámpara",</v>
-      </c>
-      <c r="K81" s="19" t="str">
+        <v>"ON_CYCLE_AFTER_RESTART":"Włącz cykl po ponownym uruchomieniu lampy",</v>
+      </c>
+      <c r="L81" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Włącz cykl po ponownym uruchomieniu lampy",</v>
-      </c>
-      <c r="L81" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"ON_CYCLE_AFTER_RESTART":"Activer le cycle après le redémarrage de la lampe",</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="D82" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="E82" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="F82" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Button - only the effects selected in the Cycle",</v>
+      </c>
+      <c r="I82" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Button - only the effects selected in the Cycle",</v>
-      </c>
-      <c r="I82" s="21" t="str">
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Кнопкою - лише ефекти, вибрані в Циклі",</v>
+      </c>
+      <c r="J82" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Кнопкою - лише ефекти, вибрані в Циклі",</v>
-      </c>
-      <c r="J82" s="19" t="str">
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Botón - solo los efectos seleccionados en el Ciclo",</v>
+      </c>
+      <c r="K82" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Botón - solo los efectos seleccionados en el Ciclo",</v>
-      </c>
-      <c r="K82" s="19" t="str">
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Przycisk - tylko efekty wybrane w Cyklu",</v>
+      </c>
+      <c r="L82" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Przycisk - tylko efekty wybrane w Cyklu",</v>
-      </c>
-      <c r="L82" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"BUTTON_ONLY_CYCLE_EFF":"Bouton - uniquement les effets sélectionnés dans le Cycle",</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="D83" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="E83" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="F83" s="20" t="s">
         <v>459</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>460</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"ORIGINAL_STATE_EFF":"Resetting effects settings to their original state",</v>
+      </c>
+      <c r="I83" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"ORIGINAL_STATE_EFF":"Resetting effects settings to their original state",</v>
-      </c>
-      <c r="I83" s="21" t="str">
+        <v>"ORIGINAL_STATE_EFF":"Скидання налаштувань ефектів у початкові",</v>
+      </c>
+      <c r="J83" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"ORIGINAL_STATE_EFF":"Скидання налаштувань ефектів у початкові",</v>
-      </c>
-      <c r="J83" s="19" t="str">
+        <v>"ORIGINAL_STATE_EFF":"Restablecimiento de la configuración de efectos a su estado original",</v>
+      </c>
+      <c r="K83" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"ORIGINAL_STATE_EFF":"Restablecimiento de la configuración de efectos a su estado original",</v>
-      </c>
-      <c r="K83" s="19" t="str">
+        <v>"ORIGINAL_STATE_EFF":"Resetowanie ustawień efektów do ich pierwotnego stanu",</v>
+      </c>
+      <c r="L83" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"ORIGINAL_STATE_EFF":"Resetowanie ustawień efektów do ich pierwotnego stanu",</v>
-      </c>
-      <c r="L83" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"ORIGINAL_STATE_EFF":"Réinitialisation des paramètres d'effets à leur état d'origine",</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="D84" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="E84" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="F84" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>466</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"SAVE_EFF_TO_FILE":"Save effects settings to a file",</v>
+      </c>
+      <c r="I84" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SAVE_EFF_TO_FILE":"Save effects settings to a file",</v>
-      </c>
-      <c r="I84" s="21" t="str">
+        <v>"SAVE_EFF_TO_FILE":"Зберегти налаштування ефектів у файл",</v>
+      </c>
+      <c r="J84" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SAVE_EFF_TO_FILE":"Зберегти налаштування ефектів у файл",</v>
-      </c>
-      <c r="J84" s="19" t="str">
+        <v>"SAVE_EFF_TO_FILE":"Guardar ajustes de efectos en un archivo",</v>
+      </c>
+      <c r="K84" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SAVE_EFF_TO_FILE":"Guardar ajustes de efectos en un archivo",</v>
-      </c>
-      <c r="K84" s="19" t="str">
+        <v>"SAVE_EFF_TO_FILE":"Zapisz ustawienia efektów do pliku",</v>
+      </c>
+      <c r="L84" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SAVE_EFF_TO_FILE":"Zapisz ustawienia efektów do pliku",</v>
-      </c>
-      <c r="L84" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"SAVE_EFF_TO_FILE":"Enregistrer les paramètres d'effets dans un fichier",</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="D85" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="E85" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="F85" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>472</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"READ_EFF_FROM_FILE":"Read effect settings from a file",</v>
+      </c>
+      <c r="I85" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"READ_EFF_FROM_FILE":"Read effect settings from a file",</v>
-      </c>
-      <c r="I85" s="21" t="str">
+        <v>"READ_EFF_FROM_FILE":"Читати налаштування ефектів із файлу",</v>
+      </c>
+      <c r="J85" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"READ_EFF_FROM_FILE":"Читати налаштування ефектів із файлу",</v>
-      </c>
-      <c r="J85" s="19" t="str">
+        <v>"READ_EFF_FROM_FILE":"Leer ajustes de efectos desde un archivo",</v>
+      </c>
+      <c r="K85" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"READ_EFF_FROM_FILE":"Leer ajustes de efectos desde un archivo",</v>
-      </c>
-      <c r="K85" s="19" t="str">
+        <v>"READ_EFF_FROM_FILE":"Odczytaj ustawienia efektów z pliku",</v>
+      </c>
+      <c r="L85" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"READ_EFF_FROM_FILE":"Odczytaj ustawienia efektów z pliku",</v>
-      </c>
-      <c r="L85" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"READ_EFF_FROM_FILE":"Lire les paramètres d'effet à partir d'un fichier",</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="D86" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="F86" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>478</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"RUN_TEXT":"Running line text",</v>
+      </c>
+      <c r="I86" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"RUN_TEXT":"Running line text",</v>
-      </c>
-      <c r="I86" s="21" t="str">
+        <v>"RUN_TEXT":"Текст рядка, що біжить",</v>
+      </c>
+      <c r="J86" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"RUN_TEXT":"Текст рядка, що біжить",</v>
-      </c>
-      <c r="J86" s="19" t="str">
+        <v>"RUN_TEXT":"Texto de línea continua",</v>
+      </c>
+      <c r="K86" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"RUN_TEXT":"Texto de línea continua",</v>
-      </c>
-      <c r="K86" s="19" t="str">
+        <v>"RUN_TEXT":"Uruchomiony tekst linii",</v>
+      </c>
+      <c r="L86" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"RUN_TEXT":"Uruchomiony tekst linii",</v>
-      </c>
-      <c r="L86" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"RUN_TEXT":"Texte en ligne courant",</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="C87" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="D87" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="F87" s="20" t="s">
         <v>483</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>484</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"PERIOD_RUN_TIME":"Periodicity of time output in a line 0-60 min. 0 - do not display time",</v>
+      </c>
+      <c r="I87" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"PERIOD_RUN_TIME":"Periodicity of time output in a line 0-60 min. 0 - do not display time",</v>
-      </c>
-      <c r="I87" s="21" t="str">
+        <v>"PERIOD_RUN_TIME":"Періодичність виведення часу рядком 0-60 хв. 0 - не виводити час",</v>
+      </c>
+      <c r="J87" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"PERIOD_RUN_TIME":"Періодичність виведення часу рядком 0-60 хв. 0 - не виводити час",</v>
-      </c>
-      <c r="J87" s="19" t="str">
+        <v>"PERIOD_RUN_TIME":"Periodicidad de salida de tiempo en una línea 0-60 min. 0 - no muestra la hora",</v>
+      </c>
+      <c r="K87" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"PERIOD_RUN_TIME":"Periodicidad de salida de tiempo en una línea 0-60 min. 0 - no muestra la hora",</v>
-      </c>
-      <c r="K87" s="19" t="str">
+        <v>"PERIOD_RUN_TIME":"Częstotliwość czasu wyprowadzania w linii 0-60 min. 0 - nie wyświetlaj czasu",</v>
+      </c>
+      <c r="L87" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"PERIOD_RUN_TIME":"Częstotliwość czasu wyprowadzania w linii 0-60 min. 0 - nie wyświetlaj czasu",</v>
-      </c>
-      <c r="L87" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"PERIOD_RUN_TIME":"Périodicité de sortie de temps dans une ligne 0-60 min. 0 - ne pas afficher l'heure",</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="C88" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="D88" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="E88" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="F88" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>490</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Display the time on a switched-off lamp",</v>
+      </c>
+      <c r="I88" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Display the time on a switched-off lamp",</v>
-      </c>
-      <c r="I88" s="21" t="str">
+        <v>"DISPLAY_TIME_LAMP_OFF":"Виводити час на вимкненій лампі",</v>
+      </c>
+      <c r="J88" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Виводити час на вимкненій лампі",</v>
-      </c>
-      <c r="J88" s="19" t="str">
+        <v>"DISPLAY_TIME_LAMP_OFF":"Mostrar la hora en una lámpara apagada",</v>
+      </c>
+      <c r="K88" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Mostrar la hora en una lámpara apagada",</v>
-      </c>
-      <c r="K88" s="19" t="str">
+        <v>"DISPLAY_TIME_LAMP_OFF":"Wyświetlaj czas na wyłączonej lampie",</v>
+      </c>
+      <c r="L88" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Wyświetlaj czas na wyłączonej lampie",</v>
-      </c>
-      <c r="L88" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"DISPLAY_TIME_LAMP_OFF":"Afficher l'heure sur une lampe éteinte",</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="C89" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="D89" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="F89" s="20" t="s">
         <v>495</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>496</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"HOUR_OF_NIGHT":"Hour of transition to night time",</v>
+      </c>
+      <c r="I89" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOUR_OF_NIGHT":"Hour of transition to night time",</v>
-      </c>
-      <c r="I89" s="21" t="str">
+        <v>"HOUR_OF_NIGHT":"Година переходу на нічний час",</v>
+      </c>
+      <c r="J89" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOUR_OF_NIGHT":"Година переходу на нічний час",</v>
-      </c>
-      <c r="J89" s="19" t="str">
+        <v>"HOUR_OF_NIGHT":"Hora de transición a la noche",</v>
+      </c>
+      <c r="K89" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOUR_OF_NIGHT":"Hora de transición a la noche",</v>
-      </c>
-      <c r="K89" s="19" t="str">
+        <v>"HOUR_OF_NIGHT":"Godzina przejścia na porę nocną",</v>
+      </c>
+      <c r="L89" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOUR_OF_NIGHT":"Godzina przejścia na porę nocną",</v>
-      </c>
-      <c r="L89" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"HOUR_OF_NIGHT":"Heure de passage à la nuit",</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="C90" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="D90" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="E90" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="F90" s="20" t="s">
         <v>501</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>502</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"BR_NIGHT":"Brightness at night",</v>
+      </c>
+      <c r="I90" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BR_NIGHT":"Brightness at night",</v>
-      </c>
-      <c r="I90" s="21" t="str">
+        <v>"BR_NIGHT":"Яскравість у нічний час",</v>
+      </c>
+      <c r="J90" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BR_NIGHT":"Яскравість у нічний час",</v>
-      </c>
-      <c r="J90" s="19" t="str">
+        <v>"BR_NIGHT":"Brillo en la noche",</v>
+      </c>
+      <c r="K90" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BR_NIGHT":"Brillo en la noche",</v>
-      </c>
-      <c r="K90" s="19" t="str">
+        <v>"BR_NIGHT":"Jasność w nocy",</v>
+      </c>
+      <c r="L90" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BR_NIGHT":"Jasność w nocy",</v>
-      </c>
-      <c r="L90" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"BR_NIGHT":"Luminosité la nuit",</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="C91" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="D91" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="E91" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="F91" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>508</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"VOICE_TIME_NIGHT":"Voice the time at night",</v>
+      </c>
+      <c r="I91" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"VOICE_TIME_NIGHT":"Voice the time at night",</v>
-      </c>
-      <c r="I91" s="21" t="str">
+        <v>"VOICE_TIME_NIGHT":"Озвучувати час уночі",</v>
+      </c>
+      <c r="J91" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"VOICE_TIME_NIGHT":"Озвучувати час уночі",</v>
-      </c>
-      <c r="J91" s="19" t="str">
+        <v>"VOICE_TIME_NIGHT":"Voz el tiempo en la noche",</v>
+      </c>
+      <c r="K91" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"VOICE_TIME_NIGHT":"Voz el tiempo en la noche",</v>
-      </c>
-      <c r="K91" s="19" t="str">
+        <v>"VOICE_TIME_NIGHT":"Wypowiadaj czas w nocy",</v>
+      </c>
+      <c r="L91" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"VOICE_TIME_NIGHT":"Wypowiadaj czas w nocy",</v>
-      </c>
-      <c r="L91" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"VOICE_TIME_NIGHT":"Exprimez l'heure la nuit",</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="C92" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="D92" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="F92" s="20" t="s">
         <v>513</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>514</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"SOUND_VOLUM":"The volume of sounding",</v>
+      </c>
+      <c r="I92" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SOUND_VOLUM":"The volume of sounding",</v>
-      </c>
-      <c r="I92" s="21" t="str">
+        <v>"SOUND_VOLUM":"Гучність озвучування",</v>
+      </c>
+      <c r="J92" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SOUND_VOLUM":"Гучність озвучування",</v>
-      </c>
-      <c r="J92" s="19" t="str">
+        <v>"SOUND_VOLUM":"El volumen de sonido",</v>
+      </c>
+      <c r="K92" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SOUND_VOLUM":"El volumen de sonido",</v>
-      </c>
-      <c r="K92" s="19" t="str">
+        <v>"SOUND_VOLUM":"Głośność brzmienia",</v>
+      </c>
+      <c r="L92" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SOUND_VOLUM":"Głośność brzmienia",</v>
-      </c>
-      <c r="L92" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"SOUND_VOLUM":"Le volume sonore",</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="C93" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="D93" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="E93" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="F93" s="20" t="s">
         <v>519</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>520</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"HOUR_OF_DAY":"Hour of transition to day time",</v>
+      </c>
+      <c r="I93" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOUR_OF_DAY":"Hour of transition to day time",</v>
-      </c>
-      <c r="I93" s="21" t="str">
+        <v>"HOUR_OF_DAY":"Година переходу на денний час",</v>
+      </c>
+      <c r="J93" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOUR_OF_DAY":"Година переходу на денний час",</v>
-      </c>
-      <c r="J93" s="19" t="str">
+        <v>"HOUR_OF_DAY":"Hora de transición a la hora del día",</v>
+      </c>
+      <c r="K93" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOUR_OF_DAY":"Hora de transición a la hora del día",</v>
-      </c>
-      <c r="K93" s="19" t="str">
+        <v>"HOUR_OF_DAY":"Godzina przejścia na czas dzienny",</v>
+      </c>
+      <c r="L93" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOUR_OF_DAY":"Godzina przejścia na czas dzienny",</v>
-      </c>
-      <c r="L93" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"HOUR_OF_DAY":"Heure de passage à l'heure de jour",</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="C94" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="D94" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="E94" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="F94" s="20" t="s">
         <v>525</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>526</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"BR_DAY":"Brightness during the day",</v>
+      </c>
+      <c r="I94" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BR_DAY":"Brightness during the day",</v>
-      </c>
-      <c r="I94" s="21" t="str">
+        <v>"BR_DAY":"Яскравість у денний час",</v>
+      </c>
+      <c r="J94" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BR_DAY":"Яскравість у денний час",</v>
-      </c>
-      <c r="J94" s="19" t="str">
+        <v>"BR_DAY":"Brillo durante el día",</v>
+      </c>
+      <c r="K94" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BR_DAY":"Brillo durante el día",</v>
-      </c>
-      <c r="K94" s="19" t="str">
+        <v>"BR_DAY":"Jasność w ciągu dnia",</v>
+      </c>
+      <c r="L94" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BR_DAY":"Jasność w ciągu dnia",</v>
-      </c>
-      <c r="L94" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"BR_DAY":"Luminosité pendant la journée",</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="C95" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="D95" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="E95" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="F95" s="20" t="s">
         <v>531</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>532</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"VOICE_TIME_DAY":"Voice the time of day",</v>
+      </c>
+      <c r="I95" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"VOICE_TIME_DAY":"Voice the time of day",</v>
-      </c>
-      <c r="I95" s="21" t="str">
+        <v>"VOICE_TIME_DAY":"Озвучувати час вдень",</v>
+      </c>
+      <c r="J95" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"VOICE_TIME_DAY":"Озвучувати час вдень",</v>
-      </c>
-      <c r="J95" s="19" t="str">
+        <v>"VOICE_TIME_DAY":"Voz de la hora del día",</v>
+      </c>
+      <c r="K95" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"VOICE_TIME_DAY":"Voz de la hora del día",</v>
-      </c>
-      <c r="K95" s="19" t="str">
+        <v>"VOICE_TIME_DAY":"Wypowiedz porę dnia",</v>
+      </c>
+      <c r="L95" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"VOICE_TIME_DAY":"Wypowiedz porę dnia",</v>
-      </c>
-      <c r="L95" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"VOICE_TIME_DAY":"Voix de l'heure du jour",</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="C96" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="D96" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="E96" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="F96" s="20" t="s">
         <v>537</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>538</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"TIMER_ON_OFF":"Timer on/off of Lamp",</v>
+      </c>
+      <c r="I96" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"TIMER_ON_OFF":"Timer on/off of Lamp",</v>
-      </c>
-      <c r="I96" s="21" t="str">
+        <v>"TIMER_ON_OFF":"Таймер вкл / відкл лампы.",</v>
+      </c>
+      <c r="J96" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"TIMER_ON_OFF":"Таймер вкл / відкл лампы.",</v>
-      </c>
-      <c r="J96" s="19" t="str">
+        <v>"TIMER_ON_OFF":"Temporizador de encendido/apagado de la lámpara",</v>
+      </c>
+      <c r="K96" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"TIMER_ON_OFF":"Temporizador de encendido/apagado de la lámpara",</v>
-      </c>
-      <c r="K96" s="19" t="str">
+        <v>"TIMER_ON_OFF":"Włącznik/wyłącznik czasowy lampy",</v>
+      </c>
+      <c r="L96" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"TIMER_ON_OFF":"Włącznik/wyłącznik czasowy lampy",</v>
-      </c>
-      <c r="L96" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"TIMER_ON_OFF":"Minuterie marche/arrêt de la lampe",</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="C97" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="D97" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="E97" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="F97" s="20" t="s">
         <v>543</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>544</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"TIMER_RUN":" 'Run': 'Runing'",</v>
+      </c>
+      <c r="I97" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"TIMER_RUN":" 'Run': 'Runing'",</v>
-      </c>
-      <c r="I97" s="21" t="str">
+        <v>"TIMER_RUN":"'Запустити':'Запущено'",</v>
+      </c>
+      <c r="J97" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"TIMER_RUN":"'Запустити':'Запущено'",</v>
-      </c>
-      <c r="J97" s="19" t="str">
+        <v>"TIMER_RUN":" 'Correr': 'Lanzado'",</v>
+      </c>
+      <c r="K97" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"TIMER_RUN":" 'Correr': 'Lanzado'",</v>
-      </c>
-      <c r="K97" s="19" t="str">
+        <v>"TIMER_RUN":" 'Uruchomić': 'Uruchomiona'",</v>
+      </c>
+      <c r="L97" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"TIMER_RUN":" 'Uruchomić': 'Uruchomiona'",</v>
-      </c>
-      <c r="L97" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"TIMER_RUN":" 'Courir' : 'Lancé'",</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="C98" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="D98" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="E98" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="F98" s="20" t="s">
         <v>549</v>
-      </c>
-      <c r="F98" s="20" t="s">
-        <v>550</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"BUTTON_ACTIVE":"The button is activated",</v>
+      </c>
+      <c r="I98" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BUTTON_ACTIVE":"The button is activated",</v>
-      </c>
-      <c r="I98" s="21" t="str">
+        <v>"BUTTON_ACTIVE":"Кнопка активована",</v>
+      </c>
+      <c r="J98" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BUTTON_ACTIVE":"Кнопка активована",</v>
-      </c>
-      <c r="J98" s="19" t="str">
+        <v>"BUTTON_ACTIVE":"El botón está activado",</v>
+      </c>
+      <c r="K98" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BUTTON_ACTIVE":"El botón está activado",</v>
-      </c>
-      <c r="K98" s="19" t="str">
+        <v>"BUTTON_ACTIVE":"Przycisk jest aktywny",</v>
+      </c>
+      <c r="L98" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BUTTON_ACTIVE":"Przycisk jest aktywny",</v>
-      </c>
-      <c r="L98" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"BUTTON_ACTIVE":"Le bouton est activé",</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="C99" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="D99" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="E99" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="F99" s="20" t="s">
         <v>555</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>556</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"POWER_FAILURE":"Do not turn on after power failure",</v>
+      </c>
+      <c r="I99" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"POWER_FAILURE":"Do not turn on after power failure",</v>
-      </c>
-      <c r="I99" s="21" t="str">
+        <v>"POWER_FAILURE":"Не включати після знеструмлення",</v>
+      </c>
+      <c r="J99" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"POWER_FAILURE":"Не включати після знеструмлення",</v>
-      </c>
-      <c r="J99" s="19" t="str">
+        <v>"POWER_FAILURE":"No encender después de un corte de energía",</v>
+      </c>
+      <c r="K99" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"POWER_FAILURE":"No encender después de un corte de energía",</v>
-      </c>
-      <c r="K99" s="19" t="str">
+        <v>"POWER_FAILURE":"Nie włączaj po awarii zasilania",</v>
+      </c>
+      <c r="L99" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"POWER_FAILURE":"Nie włączaj po awarii zasilania",</v>
-      </c>
-      <c r="L99" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"POWER_FAILURE":"Ne pas allumer après une panne de courant",</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="C100" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="D100" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="E100" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="F100" s="20" t="s">
         <v>561</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>562</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"DARK_THEME":"Dark theme",</v>
+      </c>
+      <c r="I100" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"DARK_THEME":"Dark theme",</v>
-      </c>
-      <c r="I100" s="21" t="str">
+        <v>"DARK_THEME":"Темна тема",</v>
+      </c>
+      <c r="J100" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"DARK_THEME":"Темна тема",</v>
-      </c>
-      <c r="J100" s="19" t="str">
+        <v>"DARK_THEME":"tema oscuro",</v>
+      </c>
+      <c r="K100" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"DARK_THEME":"tema oscuro",</v>
-      </c>
-      <c r="K100" s="19" t="str">
+        <v>"DARK_THEME":"ciemny schemat",</v>
+      </c>
+      <c r="L100" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"DARK_THEME":"ciemny schemat",</v>
-      </c>
-      <c r="L100" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"DARK_THEME":"Thème sombre",</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="D101" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="E101" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="F101" s="20" t="s">
         <v>567</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>568</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"AUTO_TIMER":"Automatic lamp shutdown timer (for the forgetful)",</v>
+      </c>
+      <c r="I101" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"AUTO_TIMER":"Automatic lamp shutdown timer (for the forgetful)",</v>
-      </c>
-      <c r="I101" s="21" t="str">
+        <v>"AUTO_TIMER":"Автоматичний таймер відключення лампи (для забудькуватих)",</v>
+      </c>
+      <c r="J101" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"AUTO_TIMER":"Автоматичний таймер відключення лампи (для забудькуватих)",</v>
-      </c>
-      <c r="J101" s="19" t="str">
+        <v>"AUTO_TIMER":"Temporizador de apagado automático de la lámpara (para los olvidadizos)",</v>
+      </c>
+      <c r="K101" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"AUTO_TIMER":"Temporizador de apagado automático de la lámpara (para los olvidadizos)",</v>
-      </c>
-      <c r="K101" s="19" t="str">
+        <v>"AUTO_TIMER":"Automatyczny wyłącznik czasowy lampy (dla zapominalskich)",</v>
+      </c>
+      <c r="L101" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"AUTO_TIMER":"Automatyczny wyłącznik czasowy lampy (dla zapominalskich)",</v>
-      </c>
-      <c r="L101" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"AUTO_TIMER":"Minuterie d'arrêt automatique de la lampe (pour les oublieux)",</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="C102" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="D102" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="E102" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="F102" s="20" t="s">
         <v>573</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>574</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"NOT_OFF":"Do not turn off",</v>
+      </c>
+      <c r="I102" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"NOT_OFF":"Do not turn off",</v>
-      </c>
-      <c r="I102" s="21" t="str">
+        <v>"NOT_OFF":"Не вимикати",</v>
+      </c>
+      <c r="J102" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"NOT_OFF":"Не вимикати",</v>
-      </c>
-      <c r="J102" s="19" t="str">
+        <v>"NOT_OFF":"No apagar",</v>
+      </c>
+      <c r="K102" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"NOT_OFF":"No apagar",</v>
-      </c>
-      <c r="K102" s="19" t="str">
+        <v>"NOT_OFF":"Nie wyłączać",</v>
+      </c>
+      <c r="L102" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"NOT_OFF":"Nie wyłączać",</v>
-      </c>
-      <c r="L102" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"NOT_OFF":"Ne pas eteindre",</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="C103" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="D103" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="E103" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="F103" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>580</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"HOURS":"hours",</v>
+      </c>
+      <c r="I103" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOURS":"hours",</v>
-      </c>
-      <c r="I103" s="21" t="str">
+        <v>"HOURS":"годин",</v>
+      </c>
+      <c r="J103" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOURS":"годин",</v>
-      </c>
-      <c r="J103" s="19" t="str">
+        <v>"HOURS":"horas",</v>
+      </c>
+      <c r="K103" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOURS":"horas",</v>
-      </c>
-      <c r="K103" s="19" t="str">
+        <v>"HOURS":"godziny",</v>
+      </c>
+      <c r="L103" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOURS":"godziny",</v>
-      </c>
-      <c r="L103" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"HOURS":"heures",</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="C104" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="D104" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="E104" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="F104" s="20" t="s">
         <v>585</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>586</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"HOUR":"hour",</v>
+      </c>
+      <c r="I104" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOUR":"hour",</v>
-      </c>
-      <c r="I104" s="21" t="str">
+        <v>"HOUR":"година",</v>
+      </c>
+      <c r="J104" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOUR":"година",</v>
-      </c>
-      <c r="J104" s="19" t="str">
+        <v>"HOUR":"hora",</v>
+      </c>
+      <c r="K104" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOUR":"hora",</v>
-      </c>
-      <c r="K104" s="19" t="str">
+        <v>"HOUR":"godzina",</v>
+      </c>
+      <c r="L104" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOUR":"godzina",</v>
-      </c>
-      <c r="L104" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"HOUR":"heure",</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C105" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>588</v>
-      </c>
       <c r="D105" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="F105" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>580</v>
       </c>
       <c r="G105" s="17"/>
       <c r="H105" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"HOURS2":"hours",</v>
+      </c>
+      <c r="I105" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOURS2":"hours",</v>
-      </c>
-      <c r="I105" s="21" t="str">
+        <v>"HOURS2":"години",</v>
+      </c>
+      <c r="J105" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOURS2":"години",</v>
-      </c>
-      <c r="J105" s="19" t="str">
+        <v>"HOURS2":"horas",</v>
+      </c>
+      <c r="K105" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOURS2":"horas",</v>
-      </c>
-      <c r="K105" s="19" t="str">
+        <v>"HOURS2":"godziny",</v>
+      </c>
+      <c r="L105" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOURS2":"godziny",</v>
-      </c>
-      <c r="L105" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"HOURS2":"heures",</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="C106" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="D106" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="E106" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="F106" s="20" t="s">
         <v>593</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>594</v>
       </c>
       <c r="G106" s="17"/>
       <c r="H106" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"CONTROL_SEVERAL_LAMPS":"Control of several lamps",</v>
+      </c>
+      <c r="I106" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Control of several lamps",</v>
-      </c>
-      <c r="I106" s="21" t="str">
+        <v>"CONTROL_SEVERAL_LAMPS":"Управління кількома лампами",</v>
+      </c>
+      <c r="J106" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Управління кількома лампами",</v>
-      </c>
-      <c r="J106" s="19" t="str">
+        <v>"CONTROL_SEVERAL_LAMPS":"Control de varias lámparas",</v>
+      </c>
+      <c r="K106" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Control de varias lámparas",</v>
-      </c>
-      <c r="K106" s="19" t="str">
+        <v>"CONTROL_SEVERAL_LAMPS":"Sterowanie kilkoma lampami",</v>
+      </c>
+      <c r="L106" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Sterowanie kilkoma lampami",</v>
-      </c>
-      <c r="L106" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"CONTROL_SEVERAL_LAMPS":"Commande de plusieurs lampes",</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="C107" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="D107" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="E107" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="F107" s="20" t="s">
         <v>599</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>600</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"SOUND_EFF_SET":"Sound effects settings",</v>
+      </c>
+      <c r="I107" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SOUND_EFF_SET":"Sound effects settings",</v>
-      </c>
-      <c r="I107" s="21" t="str">
+        <v>"SOUND_EFF_SET":"Налаштування озвучування ефектів",</v>
+      </c>
+      <c r="J107" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SOUND_EFF_SET":"Налаштування озвучування ефектів",</v>
-      </c>
-      <c r="J107" s="19" t="str">
+        <v>"SOUND_EFF_SET":"Ajustes de efectos de sonido",</v>
+      </c>
+      <c r="K107" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SOUND_EFF_SET":"Ajustes de efectos de sonido",</v>
-      </c>
-      <c r="K107" s="19" t="str">
+        <v>"SOUND_EFF_SET":"Ustawienia efektów dźwiękowych",</v>
+      </c>
+      <c r="L107" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SOUND_EFF_SET":"Ustawienia efektów dźwiękowych",</v>
-      </c>
-      <c r="L107" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"SOUND_EFF_SET":"Paramètres des effets sonores",</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="C108" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="D108" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="E108" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="F108" s="20" t="s">
         <v>605</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>606</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"SNAKE":"Snake",</v>
+      </c>
+      <c r="I108" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SNAKE":"Snake",</v>
-      </c>
-      <c r="I108" s="21" t="str">
+        <v>"SNAKE":"Змійка",</v>
+      </c>
+      <c r="J108" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SNAKE":"Змійка",</v>
-      </c>
-      <c r="J108" s="19" t="str">
+        <v>"SNAKE":"Serpiente",</v>
+      </c>
+      <c r="K108" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SNAKE":"Serpiente",</v>
-      </c>
-      <c r="K108" s="19" t="str">
+        <v>"SNAKE":"Wąż",</v>
+      </c>
+      <c r="L108" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SNAKE":"Wąż",</v>
-      </c>
-      <c r="L108" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"SNAKE":"Serpent",</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="C109" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="D109" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="E109" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="F109" s="20" t="s">
         <v>611</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>612</v>
       </c>
       <c r="G109" s="17"/>
       <c r="H109" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"PARALLEL":"Parallel",</v>
+      </c>
+      <c r="I109" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"PARALLEL":"Parallel",</v>
-      </c>
-      <c r="I109" s="21" t="str">
+        <v>"PARALLEL":"Паралельна",</v>
+      </c>
+      <c r="J109" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"PARALLEL":"Паралельна",</v>
-      </c>
-      <c r="J109" s="19" t="str">
+        <v>"PARALLEL":"Paralela",</v>
+      </c>
+      <c r="K109" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"PARALLEL":"Paralela",</v>
-      </c>
-      <c r="K109" s="19" t="str">
+        <v>"PARALLEL":"Równoległy",</v>
+      </c>
+      <c r="L109" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"PARALLEL":"Równoległy",</v>
-      </c>
-      <c r="L109" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"PARALLEL":"Parallèle",</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="C110" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="D110" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="E110" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="F110" s="20" t="s">
         <v>617</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>618</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"0_0":"LL corner - to the right",</v>
+      </c>
+      <c r="I110" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"0_0":"LL corner - to the right",</v>
-      </c>
-      <c r="I110" s="21" t="str">
+        <v>"0_0":"Кут ЛН - вправо",</v>
+      </c>
+      <c r="J110" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"0_0":"Кут ЛН - вправо",</v>
-      </c>
-      <c r="J110" s="19" t="str">
+        <v>"0_0":"Esquina LL - a la derecha",</v>
+      </c>
+      <c r="K110" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"0_0":"Esquina LL - a la derecha",</v>
-      </c>
-      <c r="K110" s="19" t="str">
+        <v>"0_0":"Narożnik LL - w prawo",</v>
+      </c>
+      <c r="L110" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"0_0":"Narożnik LL - w prawo",</v>
-      </c>
-      <c r="L110" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"0_0":"Coin LL - à droite",</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="C111" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="D111" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="E111" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="20" t="s">
         <v>623</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>624</v>
       </c>
       <c r="G111" s="17"/>
       <c r="H111" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"0_1":"LL corner - up",</v>
+      </c>
+      <c r="I111" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"0_1":"LL corner - up",</v>
-      </c>
-      <c r="I111" s="21" t="str">
+        <v>"0_1":"Кут ЛН - вгору",</v>
+      </c>
+      <c r="J111" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"0_1":"Кут ЛН - вгору",</v>
-      </c>
-      <c r="J111" s="19" t="str">
+        <v>"0_1":"Esquina LL - arriba",</v>
+      </c>
+      <c r="K111" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"0_1":"Esquina LL - arriba",</v>
-      </c>
-      <c r="K111" s="19" t="str">
+        <v>"0_1":"Narożnik LL - do góry",</v>
+      </c>
+      <c r="L111" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"0_1":"Narożnik LL - do góry",</v>
-      </c>
-      <c r="L111" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"0_1":"Coin LL - vers le haut",</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="C112" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="D112" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="E112" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="F112" s="20" t="s">
         <v>629</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>630</v>
       </c>
       <c r="G112" s="17"/>
       <c r="H112" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"1_0":"UL corner -  to the right",</v>
+      </c>
+      <c r="I112" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"1_0":"UL corner -  to the right",</v>
-      </c>
-      <c r="I112" s="21" t="str">
+        <v>"1_0":"Кут ЛВ - вправо",</v>
+      </c>
+      <c r="J112" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"1_0":"Кут ЛВ - вправо",</v>
-      </c>
-      <c r="J112" s="19" t="str">
+        <v>"1_0":"Esquina UL - a la derecha",</v>
+      </c>
+      <c r="K112" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"1_0":"Esquina UL - a la derecha",</v>
-      </c>
-      <c r="K112" s="19" t="str">
+        <v>"1_0":"Narożnik UL - w prawo",</v>
+      </c>
+      <c r="L112" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"1_0":"Narożnik UL - w prawo",</v>
-      </c>
-      <c r="L112" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"1_0":"Coin UL - à droite",</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="C113" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="D113" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="E113" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="F113" s="20" t="s">
         <v>635</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>636</v>
       </c>
       <c r="G113" s="17"/>
       <c r="H113" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"1_3":"UL corner - down",</v>
+      </c>
+      <c r="I113" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"1_3":"UL corner - down",</v>
-      </c>
-      <c r="I113" s="21" t="str">
+        <v>"1_3":"Кут ЛВ - вниз",</v>
+      </c>
+      <c r="J113" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"1_3":"Кут ЛВ - вниз",</v>
-      </c>
-      <c r="J113" s="19" t="str">
+        <v>"1_3":"Esquina UL - abajo",</v>
+      </c>
+      <c r="K113" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"1_3":"Esquina UL - abajo",</v>
-      </c>
-      <c r="K113" s="19" t="str">
+        <v>"1_3":"Narożnik UL - dół",</v>
+      </c>
+      <c r="L113" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"1_3":"Narożnik UL - dół",</v>
-      </c>
-      <c r="L113" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"1_3":"Coin UL - vers le bas",</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="C114" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="D114" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="E114" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="F114" s="20" t="s">
         <v>641</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>642</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"2_2":"UR corner - to the  left",</v>
+      </c>
+      <c r="I114" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"2_2":"UR corner - to the  left",</v>
-      </c>
-      <c r="I114" s="21" t="str">
+        <v>"2_2":"Кут ПВ - вліво",</v>
+      </c>
+      <c r="J114" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"2_2":"Кут ПВ - вліво",</v>
-      </c>
-      <c r="J114" s="19" t="str">
+        <v>"2_2":"Esquina UR - a la izquierda",</v>
+      </c>
+      <c r="K114" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"2_2":"Esquina UR - a la izquierda",</v>
-      </c>
-      <c r="K114" s="19" t="str">
+        <v>"2_2":"Narożnik UR - w lewo",</v>
+      </c>
+      <c r="L114" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"2_2":"Narożnik UR - w lewo",</v>
-      </c>
-      <c r="L114" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"2_2":"Coin UR - à gauche",</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="D115" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="E115" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="F115" s="20" t="s">
         <v>647</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>648</v>
       </c>
       <c r="G115" s="17"/>
       <c r="H115" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"2_3":"UR corner - down",</v>
+      </c>
+      <c r="I115" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"2_3":"UR corner - down",</v>
-      </c>
-      <c r="I115" s="21" t="str">
+        <v>"2_3":"Кут ПВ - вниз",</v>
+      </c>
+      <c r="J115" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"2_3":"Кут ПВ - вниз",</v>
-      </c>
-      <c r="J115" s="19" t="str">
+        <v>"2_3":"Esquina UR - abajo",</v>
+      </c>
+      <c r="K115" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"2_3":"Esquina UR - abajo",</v>
-      </c>
-      <c r="K115" s="19" t="str">
+        <v>"2_3":"Narożnik UR - dół",</v>
+      </c>
+      <c r="L115" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"2_3":"Narożnik UR - dół",</v>
-      </c>
-      <c r="L115" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"2_3":"Coin UR - vers le bas",</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="C116" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="D116" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="E116" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="F116" s="20" t="s">
         <v>653</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>654</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"3_2":"LR corner - to the  left",</v>
+      </c>
+      <c r="I116" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"3_2":"LR corner - to the  left",</v>
-      </c>
-      <c r="I116" s="21" t="str">
+        <v>"3_2":"Кут ПН - вліво",</v>
+      </c>
+      <c r="J116" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"3_2":"Кут ПН - вліво",</v>
-      </c>
-      <c r="J116" s="19" t="str">
+        <v>"3_2":"Esquina LR - a la izquierda",</v>
+      </c>
+      <c r="K116" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"3_2":"Esquina LR - a la izquierda",</v>
-      </c>
-      <c r="K116" s="19" t="str">
+        <v>"3_2":"Narożnik LR - w lewo",</v>
+      </c>
+      <c r="L116" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"3_2":"Narożnik LR - w lewo",</v>
-      </c>
-      <c r="L116" s="22" t="str">
-        <f t="shared" si="35"/>
         <v>"3_2":"Coin LR - à gauche",</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="C117" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="D117" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="E117" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="F117" s="20" t="s">
         <v>659</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>660</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="19" t="str">
@@ -7057,7 +7048,7 @@
         <v>"3_1":"Coin LR - vers le haut"</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="19" t="s">
         <v>11</v>
       </c>
@@ -7068,35 +7059,35 @@
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
       <c r="H118" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K118" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L118" s="26" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="G119" s="27"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="J120" s="16"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -7113,70 +7104,70 @@
     <row r="142" ht="15.75" customHeight="1"/>
     <row r="143" ht="15.75" customHeight="1"/>
     <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="145" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="146" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="147" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="148" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="149" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="150" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="151" spans="11:11" ht="15.75" customHeight="1">
       <c r="K151" s="21"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="11:11" ht="15.75" customHeight="1">
       <c r="K152" s="21"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="11:11" ht="15.75" customHeight="1">
       <c r="K153" s="21"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="11:11" ht="15.75" customHeight="1">
       <c r="K154" s="21"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="11:11" ht="15.75" customHeight="1">
       <c r="K155" s="21"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="11:11" ht="15.75" customHeight="1">
       <c r="K156" s="21"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="11:11" ht="15.75" customHeight="1">
       <c r="K157" s="21"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="11:11" ht="15.75" customHeight="1">
       <c r="K158" s="21"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="11:11" ht="15.75" customHeight="1">
       <c r="K159" s="21"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="11:11" ht="15.75" customHeight="1">
       <c r="K160" s="21"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="11:11" ht="15.75" customHeight="1">
       <c r="K161" s="21"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="11:11" ht="15.75" customHeight="1">
       <c r="K162" s="21"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="11:11" ht="15.75" customHeight="1">
       <c r="K163" s="21"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="11:11" ht="15.75" customHeight="1">
       <c r="K164" s="21"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="11:11" ht="15.75" customHeight="1">
       <c r="K165" s="21"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="11:11" ht="15.75" customHeight="1">
       <c r="K166" s="21"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="167" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="168" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="169" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="170" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="171" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="172" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="173" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="174" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="175" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="176" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="177" ht="15.75" customHeight="1"/>
     <row r="178" ht="15.75" customHeight="1"/>
     <row r="179" ht="15.75" customHeight="1"/>
@@ -8001,122 +7992,132 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$M$150"/>
+  <autoFilter ref="A1:M150"/>
   <customSheetViews>
+    <customSheetView guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:K150"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
+        </ext>
+      </extLst>
+    </customSheetView>
     <customSheetView guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$K$150">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:K150">
         <filterColumn colId="0">
           <filters>
+            <filter val="/**/"/>
+            <filter val="0_0"/>
+            <filter val="0_1"/>
+            <filter val="1_0"/>
+            <filter val="1_3"/>
+            <filter val="2_2"/>
+            <filter val="2_3"/>
+            <filter val="3_1"/>
+            <filter val="3_2"/>
+            <filter val="ALARM_SET"/>
+            <filter val="ALM_FOLD"/>
+            <filter val="ALM_SOUND"/>
+            <filter val="ALM_VOLUM"/>
+            <filter val="ALT_PANEL"/>
+            <filter val="ANNOUNCE_TIME_ALARM"/>
+            <filter val="AP"/>
+            <filter val="AP_IP"/>
+            <filter val="AP_NAME"/>
+            <filter val="AUTO_TIMER"/>
+            <filter val="BACK"/>
+            <filter val="BR_DAY"/>
+            <filter val="BR_NIGHT"/>
+            <filter val="BRIGHTNESS"/>
+            <filter val="BUTTON_ACTIVE"/>
+            <filter val="BUTTON_ONLY_CYCLE_EFF"/>
+            <filter val="CANCEL_SEL"/>
+            <filter val="COMMENT"/>
+            <filter val="CONN_TIMEOUT"/>
+            <filter val="CONN_TO_ROUTER"/>
+            <filter val="CONTROL_LAMP"/>
+            <filter val="CONTROL_SEVERAL_LAMPS"/>
+            <filter val="CUR_EFF_SET"/>
+            <filter val="CYCLE_OFF_ON"/>
+            <filter val="CYCLE_ON"/>
+            <filter val="DARK_THEME"/>
+            <filter val="DEFAULT"/>
+            <filter val="DEVICE_NAME"/>
+            <filter val="DISPLAY_TIME_LAMP_OFF"/>
+            <filter val="DURATION_DAWN"/>
+            <filter val="EFF_CHANGE_TIME"/>
+            <filter val="EFF_OF_CYCLE"/>
+            <filter val="EFFECT"/>
+            <filter val="FOLDER"/>
+            <filter val="FRI"/>
+            <filter val="GLOWING_DAWN"/>
+            <filter val="HOUR"/>
+            <filter val="HOUR_FROM_BROWSER"/>
+            <filter val="HOUR_OF_DAY"/>
+            <filter val="HOUR_OF_NIGHT"/>
+            <filter val="HOURS"/>
+            <filter val="HOURS2"/>
+            <filter val="INIT_SET"/>
+            <filter val="LAMP_ADDR"/>
+            <filter val="LAMP_FOR_SINHRO"/>
+            <filter val="LAMP_OFF_ON"/>
+            <filter val="LangAuthorization"/>
+            <filter val="MAIN"/>
+            <filter val="MATRIX_ORIEN"/>
+            <filter val="MATRIX_TYPE"/>
+            <filter val="MAX_BR_DAWN"/>
+            <filter val="MAX_CURRENT"/>
+            <filter val="MINUTES"/>
+            <filter val="MIX_EFF"/>
+            <filter val="MON"/>
+            <filter val="NET_NAME"/>
+            <filter val="NOT_OFF"/>
+            <filter val="NTP"/>
+            <filter val="ON_CYCLE_AFTER_RESTART"/>
+            <filter val="ON_DEVICE_NOW"/>
+            <filter val="ORIGINAL_STATE_EFF"/>
+            <filter val="OTHER_USE_SET"/>
+            <filter val="OVERALL_BR"/>
+            <filter val="PARALLEL"/>
+            <filter val="PASS"/>
+            <filter val="PASS_DESCRIPTION"/>
+            <filter val="PERIOD_RUN_TIME"/>
+            <filter val="POWER_FAILURE"/>
+            <filter val="RANDOM"/>
+            <filter val="RANDOM_EFF_PARAM"/>
+            <filter val="RANDOM_TIME"/>
+            <filter val="READ_EFF_FROM_FILE"/>
+            <filter val="REBOOTE"/>
+            <filter val="RUN_TEXT"/>
+            <filter val="S_VOLUM"/>
+            <filter val="SATUR"/>
+            <filter val="SAVE"/>
+            <filter val="SAVE_EFF_TO_FILE"/>
+            <filter val="SCALE"/>
+            <filter val="SEL_ALL"/>
+            <filter val="SEL_EFF_CYCLE"/>
+            <filter val="SNAKE"/>
+            <filter val="SOUND_EFF_SET"/>
+            <filter val="SOUND_ON"/>
+            <filter val="SOUND_VOLUM"/>
+            <filter val="SPEED"/>
+            <filter val="STHURS"/>
+            <filter val="SUMMER_TIME"/>
+            <filter val="SUN"/>
+            <filter val="TIME_ZONE"/>
+            <filter val="TIMER_ON_OFF"/>
+            <filter val="TIMER_RUN"/>
+            <filter val="TUES"/>
+            <filter val="UPDATE"/>
+            <filter val="USE_PASS"/>
+            <filter val="USE_PASS_DESCRIPTION"/>
             <filter val="USE_ROUTER"/>
-            <filter val="NOT_OFF"/>
-            <filter val="DURATION_DAWN"/>
-            <filter val="REBOOTE"/>
-            <filter val="TIMER_RUN"/>
-            <filter val="GLOWING_DAWN"/>
-            <filter val="HOUR_OF_NIGHT"/>
             <filter val="USER_SET"/>
             <filter val="VOICE_TIME_DAY"/>
-            <filter val="CYCLE_OFF_ON"/>
-            <filter val="BR_NIGHT"/>
-            <filter val="MAX_CURRENT"/>
-            <filter val="3_1"/>
-            <filter val="3_2"/>
-            <filter val="LAMP_FOR_SINHRO"/>
-            <filter val="EFFECT"/>
-            <filter val="INIT_SET"/>
-            <filter val="ORIGINAL_STATE_EFF"/>
-            <filter val="SUN"/>
-            <filter val="DISPLAY_TIME_LAMP_OFF"/>
-            <filter val="AP"/>
-            <filter val="ALARM_SET"/>
-            <filter val="LangAuthorization"/>
-            <filter val="PASS"/>
-            <filter val="S_VOLUM"/>
-            <filter val="SEL_ALL"/>
-            <filter val="BR_DAY"/>
-            <filter val="OTHER_USE_SET"/>
-            <filter val="NTP"/>
-            <filter val="COMMENT"/>
-            <filter val="NET_NAME"/>
-            <filter val="HOUR_FROM_BROWSER"/>
-            <filter val="SATUR"/>
-            <filter val="ON_DEVICE_NOW"/>
-            <filter val="UPDATE"/>
-            <filter val="SAVE"/>
-            <filter val="PERIOD_RUN_TIME"/>
-            <filter val="CONN_TO_ROUTER"/>
-            <filter val="BUTTON_ACTIVE"/>
-            <filter val="LAMP_ADDR"/>
-            <filter val="CYCLE_ON"/>
-            <filter val="2_2"/>
-            <filter val="RANDOM"/>
-            <filter val="2_3"/>
-            <filter val="SUMMER_TIME"/>
-            <filter val="USE_PASS"/>
-            <filter val="SOUND_VOLUM"/>
-            <filter val="SEL_EFF_CYCLE"/>
-            <filter val="/**/"/>
-            <filter val="CONN_TIMEOUT"/>
-            <filter val="CANCEL_SEL"/>
-            <filter val="READ_EFF_FROM_FILE"/>
-            <filter val="HOURS2"/>
-            <filter val="PARALLEL"/>
-            <filter val="MAX_BR_DAWN"/>
-            <filter val="EFF_CHANGE_TIME"/>
-            <filter val="ON_CYCLE_AFTER_RESTART"/>
-            <filter val="PASS_DESCRIPTION"/>
-            <filter val="MATRIX_ORIEN"/>
-            <filter val="STHURS"/>
-            <filter val="AP_IP"/>
-            <filter val="RUN_TEXT"/>
-            <filter val="SPEED"/>
-            <filter val="BUTTON_ONLY_CYCLE_EFF"/>
-            <filter val="SNAKE"/>
-            <filter val="MIX_EFF"/>
-            <filter val="MAIN"/>
-            <filter val="SOUND_EFF_SET"/>
-            <filter val="SCALE"/>
-            <filter val="FOLDER"/>
-            <filter val="CONTROL_SEVERAL_LAMPS"/>
-            <filter val="1_0"/>
-            <filter val="1_3"/>
-            <filter val="TIMER_ON_OFF"/>
-            <filter val="SOUND_ON"/>
-            <filter val="RANDOM_TIME"/>
-            <filter val="LAMP_OFF_ON"/>
-            <filter val="RANDOM_EFF_PARAM"/>
-            <filter val="AUTO_TIMER"/>
-            <filter val="CONTROL_LAMP"/>
             <filter val="VOICE_TIME_NIGHT"/>
-            <filter val="ALM_SOUND"/>
-            <filter val="HOUR"/>
-            <filter val="TUES"/>
-            <filter val="ALT_PANEL"/>
-            <filter val="DEVICE_NAME"/>
-            <filter val="AP_NAME"/>
-            <filter val="MATRIX_TYPE"/>
-            <filter val="EFF_OF_CYCLE"/>
-            <filter val="TIME_ZONE"/>
-            <filter val="HOUR_OF_DAY"/>
-            <filter val="ALM_FOLD"/>
-            <filter val="POWER_FAILURE"/>
-            <filter val="BRIGHTNESS"/>
-            <filter val="0_0"/>
-            <filter val="0_1"/>
             <filter val="WEDNES"/>
-            <filter val="CUR_EFF_SET"/>
-            <filter val="MON"/>
-            <filter val="SAVE_EFF_TO_FILE"/>
-            <filter val="DARK_THEME"/>
-            <filter val="HOURS"/>
-            <filter val="OVERALL_BR"/>
-            <filter val="ALM_VOLUM"/>
-            <filter val="BACK"/>
-            <filter val="ANNOUNCE_TIME_ALARM"/>
-            <filter val="MINUTES"/>
-            <filter val="FRI"/>
-            <filter val="DEFAULT"/>
-            <filter val="USE_PASS_DESCRIPTION"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -8126,33 +8127,21 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$K$150"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
-        </ext>
-      </extLst>
-    </customSheetView>
   </customSheetViews>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9136,24 +9125,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -10137,9 +10122,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FieryLedLampMultilingual/Language.xlsx
+++ b/FieryLedLampMultilingual/Language.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$M$150</definedName>
-    <definedName name="Z_02F08554_2E03_4827_AA05_82E0997FBBA8_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$2:$K$150</definedName>
-    <definedName name="Z_3A6F2CDC_256D_4CA7_B8B0_EE39CA0997D0_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$K$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$M$152</definedName>
+    <definedName name="Z_02F08554_2E03_4827_AA05_82E0997FBBA8_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$2:$K$152</definedName>
+    <definedName name="Z_3A6F2CDC_256D_4CA7_B8B0_EE39CA0997D0_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$K$152</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Фильтр 1" guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Фильтр 2" guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Фильтр 1" guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="674">
   <si>
     <t>Variable</t>
   </si>
@@ -2016,6 +2016,42 @@
   </si>
   <si>
     <t>Максимальний струм матриці</t>
+  </si>
+  <si>
+    <t>Відновити стандартні налаштування</t>
+  </si>
+  <si>
+    <t>Restore Defaults</t>
+  </si>
+  <si>
+    <t>RESTORE_DEFAULT</t>
+  </si>
+  <si>
+    <t>Przywróć domyślne</t>
+  </si>
+  <si>
+    <t>Restaurar valores por defecto</t>
+  </si>
+  <si>
+    <t>Restaurer les valeurs par défaut</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>Paramètres matériels</t>
+  </si>
+  <si>
+    <t>Configuración de hardware</t>
+  </si>
+  <si>
+    <t>Ustawienia sprzętu</t>
+  </si>
+  <si>
+    <t>Параметри обладнання</t>
+  </si>
+  <si>
+    <t>Hardware Setings</t>
   </si>
 </sst>
 </file>
@@ -2397,11 +2433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB999"/>
+  <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4311,23 +4347,23 @@
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="19" t="str">
-        <f t="shared" ref="H50:H72" si="25">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
+        <f t="shared" ref="H50:H75" si="25">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
         <v>"USE_PASS":"Use a password to access this page",</v>
       </c>
       <c r="I50" s="21" t="str">
-        <f t="shared" ref="I50:I72" si="26">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
+        <f t="shared" ref="I50:I75" si="26">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
         <v>"USE_PASS":"Використовувати пароль для доступу до цієї сторінки",</v>
       </c>
       <c r="J50" s="19" t="str">
-        <f t="shared" ref="J50:J72" si="27">CONCATENATE("""",A50,"""",":","""",D50,"""",",")</f>
+        <f t="shared" ref="J50:J74" si="27">CONCATENATE("""",A50,"""",":","""",D50,"""",",")</f>
         <v>"USE_PASS":"Utilice una contraseña para acceder a esta página",</v>
       </c>
       <c r="K50" s="19" t="str">
-        <f t="shared" ref="K50:K72" si="28">CONCATENATE("""",A50,"""",":","""",E50,"""",",")</f>
+        <f t="shared" ref="K50:K74" si="28">CONCATENATE("""",A50,"""",":","""",E50,"""",",")</f>
         <v>"USE_PASS":"Użyj hasła, aby uzyskać dostęp do tej strony",</v>
       </c>
       <c r="L50" s="22" t="str">
-        <f t="shared" ref="L50:L72" si="29">CONCATENATE("""",A50,"""",":","""",F50,"""",",")</f>
+        <f t="shared" ref="L50:L74" si="29">CONCATENATE("""",A50,"""",":","""",F50,"""",",")</f>
         <v>"USE_PASS":"Utilisez un mot de passe pour accéder à cette page",</v>
       </c>
     </row>
@@ -5192,1338 +5228,1338 @@
         <v>"MATRIX_ORIEN":"Orientation de la matrice",</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>395</v>
+        <v>668</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>396</v>
+        <v>673</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>399</v>
+        <v>672</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>669</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="19" t="str">
         <f t="shared" si="25"/>
-        <v>"MAX_CURRENT":"The maximum matrix current",</v>
+        <v>"HARDWARE":"Hardware Setings",</v>
       </c>
       <c r="I72" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>"MAX_CURRENT":"Максимальний струм матриці",</v>
+        <v>"HARDWARE":"Параметри обладнання",</v>
       </c>
       <c r="J72" s="19" t="str">
         <f t="shared" si="27"/>
-        <v>"MAX_CURRENT":"La corriente de matriz máxima",</v>
+        <v>"HARDWARE":"Configuración de hardware",</v>
       </c>
       <c r="K72" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>"MAX_CURRENT":"Maksymalny prąd matrycy",</v>
+        <v>"HARDWARE":"Ustawienia sprzętu",</v>
       </c>
       <c r="L72" s="22" t="str">
         <f t="shared" si="29"/>
-        <v>"MAX_CURRENT":"Le courant de matrice maximal",</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+        <v>"HARDWARE":"Paramètres matériels",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>667</v>
+      </c>
       <c r="G73" s="17"/>
-      <c r="H73" s="19"/>
-      <c r="J73" s="19"/>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"RESTORE_DEFAULT":"Restore Defaults",</v>
+      </c>
+      <c r="I73" s="19" t="str">
+        <f t="shared" si="26"/>
+        <v>"RESTORE_DEFAULT":"Відновити стандартні налаштування",</v>
+      </c>
+      <c r="J73" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>"RESTORE_DEFAULT":"Restaurar valores por defecto",</v>
+      </c>
+      <c r="K73" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>"RESTORE_DEFAULT":"Przywróć domyślne",</v>
+      </c>
+      <c r="L73" s="22" t="str">
+        <f t="shared" si="29"/>
+        <v>"RESTORE_DEFAULT":"Restaurer les valeurs par défaut",</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>402</v>
+        <v>661</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="19" t="str">
-        <f t="shared" ref="H74:H116" si="30">CONCATENATE("""",A74,"""",":","""",B74,"""",",")</f>
-        <v>"EFFECT":"Effect",</v>
+        <f t="shared" si="25"/>
+        <v>"MAX_CURRENT":"The maximum matrix current",</v>
       </c>
       <c r="I74" s="21" t="str">
-        <f t="shared" ref="I74:I116" si="31">CONCATENATE("""",A74,"""",":","""",C74,"""",",")</f>
-        <v>"EFFECT":"Ефект",</v>
+        <f t="shared" si="26"/>
+        <v>"MAX_CURRENT":"Максимальний струм матриці",</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" ref="J74:J116" si="32">CONCATENATE("""",A74,"""",":","""",D74,"""",",")</f>
-        <v>"EFFECT":"Efecto",</v>
+        <f t="shared" si="27"/>
+        <v>"MAX_CURRENT":"La corriente de matriz máxima",</v>
       </c>
       <c r="K74" s="19" t="str">
-        <f t="shared" ref="K74:K116" si="33">CONCATENATE("""",A74,"""",":","""",E74,"""",",")</f>
-        <v>"EFFECT":"Efekt",</v>
+        <f t="shared" si="28"/>
+        <v>"MAX_CURRENT":"Maksymalny prąd matrycy",</v>
       </c>
       <c r="L74" s="22" t="str">
-        <f t="shared" ref="L74:L116" si="34">CONCATENATE("""",A74,"""",":","""",F74,"""",",")</f>
-        <v>"EFFECT":"Effet",</v>
+        <f t="shared" si="29"/>
+        <v>"MAX_CURRENT":"Le courant de matrice maximal",</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>411</v>
-      </c>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="19" t="str">
-        <f t="shared" si="30"/>
-        <v>"SEL_EFF_CYCLE":"Select effects for Cycle",</v>
-      </c>
-      <c r="I75" s="21" t="str">
-        <f t="shared" si="31"/>
-        <v>"SEL_EFF_CYCLE":"Вибрати ефекти для Циклу",</v>
-      </c>
-      <c r="J75" s="19" t="str">
-        <f t="shared" si="32"/>
-        <v>"SEL_EFF_CYCLE":"Seleccionar efectos para Ciclo",</v>
-      </c>
-      <c r="K75" s="19" t="str">
-        <f t="shared" si="33"/>
-        <v>"SEL_EFF_CYCLE":"Wybierz efekty dla cyklu",</v>
-      </c>
-      <c r="L75" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>"SEL_EFF_CYCLE":"Sélectionner les effets pour Cycle",</v>
-      </c>
+      <c r="H75" s="19"/>
+      <c r="J75" s="19"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="19" t="str">
-        <f t="shared" si="30"/>
-        <v>"CYCLE_ON":"Cycle ON",</v>
+        <f t="shared" ref="H76:H118" si="30">CONCATENATE("""",A76,"""",":","""",B76,"""",",")</f>
+        <v>"EFFECT":"Effect",</v>
       </c>
       <c r="I76" s="21" t="str">
-        <f t="shared" si="31"/>
-        <v>"CYCLE_ON":"Вкл. Цикл",</v>
+        <f t="shared" ref="I76:I118" si="31">CONCATENATE("""",A76,"""",":","""",C76,"""",",")</f>
+        <v>"EFFECT":"Ефект",</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="32"/>
-        <v>"CYCLE_ON":"Ciclo ENCENDIDO",</v>
+        <f t="shared" ref="J76:J118" si="32">CONCATENATE("""",A76,"""",":","""",D76,"""",",")</f>
+        <v>"EFFECT":"Efecto",</v>
       </c>
       <c r="K76" s="19" t="str">
-        <f t="shared" si="33"/>
-        <v>"CYCLE_ON":"Cykl WŁ.",</v>
+        <f t="shared" ref="K76:K118" si="33">CONCATENATE("""",A76,"""",":","""",E76,"""",",")</f>
+        <v>"EFFECT":"Efekt",</v>
       </c>
       <c r="L76" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>"CYCLE_ON":"Cycle MARCHE",</v>
+        <f t="shared" ref="L76:L118" si="34">CONCATENATE("""",A76,"""",":","""",F76,"""",",")</f>
+        <v>"EFFECT":"Effet",</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"EFF_CHANGE_TIME":"Effect change time, sec.",</v>
+        <v>"SEL_EFF_CYCLE":"Select effects for Cycle",</v>
       </c>
       <c r="I77" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"EFF_CHANGE_TIME":"Час зміни ефектів, сек.",</v>
+        <v>"SEL_EFF_CYCLE":"Вибрати ефекти для Циклу",</v>
       </c>
       <c r="J77" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"EFF_CHANGE_TIME":"Tiempo de cambio de efecto, seg.",</v>
+        <v>"SEL_EFF_CYCLE":"Seleccionar efectos para Ciclo",</v>
       </c>
       <c r="K77" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"EFF_CHANGE_TIME":"Czas zmiany efektu, sek.",</v>
+        <v>"SEL_EFF_CYCLE":"Wybierz efekty dla cyklu",</v>
       </c>
       <c r="L77" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"EFF_CHANGE_TIME":"Temps de changement d'effet, sec.",</v>
+        <v>"SEL_EFF_CYCLE":"Sélectionner les effets pour Cycle",</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>429</v>
+        <v>414</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>417</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"RANDOM_TIME":"+ random time to ... sec.",</v>
+        <v>"CYCLE_ON":"Cycle ON",</v>
       </c>
       <c r="I78" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"RANDOM_TIME":"+ випадковий час до ... сек.",</v>
+        <v>"CYCLE_ON":"Вкл. Цикл",</v>
       </c>
       <c r="J78" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"RANDOM_TIME":". + tiempo aleatorio hasta ... seg.",</v>
+        <v>"CYCLE_ON":"Ciclo ENCENDIDO",</v>
       </c>
       <c r="K78" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"RANDOM_TIME":".+ losowy czas do ... sek.",</v>
+        <v>"CYCLE_ON":"Cykl WŁ.",</v>
       </c>
       <c r="L78" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"RANDOM_TIME":". + temps aléatoire à ... sec.",</v>
+        <v>"CYCLE_ON":"Cycle MARCHE",</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>435</v>
+        <v>422</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>423</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"MIX_EFF":"Mix selected effects",</v>
+        <v>"EFF_CHANGE_TIME":"Effect change time, sec.",</v>
       </c>
       <c r="I79" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"MIX_EFF":"Перемішати вибрані ефекти",</v>
+        <v>"EFF_CHANGE_TIME":"Час зміни ефектів, сек.",</v>
       </c>
       <c r="J79" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"MIX_EFF":"Mezclar efectos seleccionados",</v>
+        <v>"EFF_CHANGE_TIME":"Tiempo de cambio de efecto, seg.",</v>
       </c>
       <c r="K79" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"MIX_EFF":"Wymieszaj wybrane efekty",</v>
+        <v>"EFF_CHANGE_TIME":"Czas zmiany efektu, sek.",</v>
       </c>
       <c r="L79" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"MIX_EFF":"Mélanger les effets sélectionnés",</v>
+        <v>"EFF_CHANGE_TIME":"Temps de changement d'effet, sec.",</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>441</v>
+        <v>426</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>429</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"RANDOM_EFF_PARAM":"Random selection of effects parameters",</v>
+        <v>"RANDOM_TIME":"+ random time to ... sec.",</v>
       </c>
       <c r="I80" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"RANDOM_EFF_PARAM":"Випадковий вибір параметрів ефектів",</v>
+        <v>"RANDOM_TIME":"+ випадковий час до ... сек.",</v>
       </c>
       <c r="J80" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"RANDOM_EFF_PARAM":"Selección aleatoria de parámetros de efectos",</v>
+        <v>"RANDOM_TIME":". + tiempo aleatorio hasta ... seg.",</v>
       </c>
       <c r="K80" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"RANDOM_EFF_PARAM":"Losowy wybór parametrów efektów",</v>
+        <v>"RANDOM_TIME":".+ losowy czas do ... sek.",</v>
       </c>
       <c r="L80" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"RANDOM_EFF_PARAM":"Sélection aléatoire des paramètres d'effets",</v>
+        <v>"RANDOM_TIME":". + temps aléatoire à ... sec.",</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>447</v>
+        <v>434</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>435</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Enable Cycle after lamp restart",</v>
+        <v>"MIX_EFF":"Mix selected effects",</v>
       </c>
       <c r="I81" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Увімк. Цикл після перезапуску лампи",</v>
+        <v>"MIX_EFF":"Перемішати вибрані ефекти",</v>
       </c>
       <c r="J81" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Habilitar ciclo después de reiniciar la lámpara",</v>
+        <v>"MIX_EFF":"Mezclar efectos seleccionados",</v>
       </c>
       <c r="K81" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Włącz cykl po ponownym uruchomieniu lampy",</v>
+        <v>"MIX_EFF":"Wymieszaj wybrane efekty",</v>
       </c>
       <c r="L81" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Activer le cycle après le redémarrage de la lampe",</v>
+        <v>"MIX_EFF":"Mélanger les effets sélectionnés",</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Button - only the effects selected in the Cycle",</v>
+        <v>"RANDOM_EFF_PARAM":"Random selection of effects parameters",</v>
       </c>
       <c r="I82" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Кнопкою - лише ефекти, вибрані в Циклі",</v>
+        <v>"RANDOM_EFF_PARAM":"Випадковий вибір параметрів ефектів",</v>
       </c>
       <c r="J82" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Botón - solo los efectos seleccionados en el Ciclo",</v>
+        <v>"RANDOM_EFF_PARAM":"Selección aleatoria de parámetros de efectos",</v>
       </c>
       <c r="K82" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Przycisk - tylko efekty wybrane w Cyklu",</v>
+        <v>"RANDOM_EFF_PARAM":"Losowy wybór parametrów efektów",</v>
       </c>
       <c r="L82" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Bouton - uniquement les effets sélectionnés dans le Cycle",</v>
+        <v>"RANDOM_EFF_PARAM":"Sélection aléatoire des paramètres d'effets",</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"ORIGINAL_STATE_EFF":"Resetting effects settings to their original state",</v>
+        <v>"ON_CYCLE_AFTER_RESTART":"Enable Cycle after lamp restart",</v>
       </c>
       <c r="I83" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"ORIGINAL_STATE_EFF":"Скидання налаштувань ефектів у початкові",</v>
+        <v>"ON_CYCLE_AFTER_RESTART":"Увімк. Цикл після перезапуску лампи",</v>
       </c>
       <c r="J83" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"ORIGINAL_STATE_EFF":"Restablecimiento de la configuración de efectos a su estado original",</v>
+        <v>"ON_CYCLE_AFTER_RESTART":"Habilitar ciclo después de reiniciar la lámpara",</v>
       </c>
       <c r="K83" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"ORIGINAL_STATE_EFF":"Resetowanie ustawień efektów do ich pierwotnego stanu",</v>
+        <v>"ON_CYCLE_AFTER_RESTART":"Włącz cykl po ponownym uruchomieniu lampy",</v>
       </c>
       <c r="L83" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"ORIGINAL_STATE_EFF":"Réinitialisation des paramètres d'effets à leur état d'origine",</v>
+        <v>"ON_CYCLE_AFTER_RESTART":"Activer le cycle après le redémarrage de la lampe",</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"SAVE_EFF_TO_FILE":"Save effects settings to a file",</v>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Button - only the effects selected in the Cycle",</v>
       </c>
       <c r="I84" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SAVE_EFF_TO_FILE":"Зберегти налаштування ефектів у файл",</v>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Кнопкою - лише ефекти, вибрані в Циклі",</v>
       </c>
       <c r="J84" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SAVE_EFF_TO_FILE":"Guardar ajustes de efectos en un archivo",</v>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Botón - solo los efectos seleccionados en el Ciclo",</v>
       </c>
       <c r="K84" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SAVE_EFF_TO_FILE":"Zapisz ustawienia efektów do pliku",</v>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Przycisk - tylko efekty wybrane w Cyklu",</v>
       </c>
       <c r="L84" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SAVE_EFF_TO_FILE":"Enregistrer les paramètres d'effets dans un fichier",</v>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Bouton - uniquement les effets sélectionnés dans le Cycle",</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"READ_EFF_FROM_FILE":"Read effect settings from a file",</v>
+        <v>"ORIGINAL_STATE_EFF":"Resetting effects settings to their original state",</v>
       </c>
       <c r="I85" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"READ_EFF_FROM_FILE":"Читати налаштування ефектів із файлу",</v>
+        <v>"ORIGINAL_STATE_EFF":"Скидання налаштувань ефектів у початкові",</v>
       </c>
       <c r="J85" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"READ_EFF_FROM_FILE":"Leer ajustes de efectos desde un archivo",</v>
+        <v>"ORIGINAL_STATE_EFF":"Restablecimiento de la configuración de efectos a su estado original",</v>
       </c>
       <c r="K85" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"READ_EFF_FROM_FILE":"Odczytaj ustawienia efektów z pliku",</v>
+        <v>"ORIGINAL_STATE_EFF":"Resetowanie ustawień efektów do ich pierwotnego stanu",</v>
       </c>
       <c r="L85" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"READ_EFF_FROM_FILE":"Lire les paramètres d'effet à partir d'un fichier",</v>
+        <v>"ORIGINAL_STATE_EFF":"Réinitialisation des paramètres d'effets à leur état d'origine",</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"RUN_TEXT":"Running line text",</v>
+        <v>"SAVE_EFF_TO_FILE":"Save effects settings to a file",</v>
       </c>
       <c r="I86" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"RUN_TEXT":"Текст рядка, що біжить",</v>
+        <v>"SAVE_EFF_TO_FILE":"Зберегти налаштування ефектів у файл",</v>
       </c>
       <c r="J86" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"RUN_TEXT":"Texto de línea continua",</v>
+        <v>"SAVE_EFF_TO_FILE":"Guardar ajustes de efectos en un archivo",</v>
       </c>
       <c r="K86" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"RUN_TEXT":"Uruchomiony tekst linii",</v>
+        <v>"SAVE_EFF_TO_FILE":"Zapisz ustawienia efektów do pliku",</v>
       </c>
       <c r="L86" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"RUN_TEXT":"Texte en ligne courant",</v>
+        <v>"SAVE_EFF_TO_FILE":"Enregistrer les paramètres d'effets dans un fichier",</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"PERIOD_RUN_TIME":"Periodicity of time output in a line 0-60 min. 0 - do not display time",</v>
+        <v>"READ_EFF_FROM_FILE":"Read effect settings from a file",</v>
       </c>
       <c r="I87" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"PERIOD_RUN_TIME":"Періодичність виведення часу рядком 0-60 хв. 0 - не виводити час",</v>
+        <v>"READ_EFF_FROM_FILE":"Читати налаштування ефектів із файлу",</v>
       </c>
       <c r="J87" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"PERIOD_RUN_TIME":"Periodicidad de salida de tiempo en una línea 0-60 min. 0 - no muestra la hora",</v>
+        <v>"READ_EFF_FROM_FILE":"Leer ajustes de efectos desde un archivo",</v>
       </c>
       <c r="K87" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"PERIOD_RUN_TIME":"Częstotliwość czasu wyprowadzania w linii 0-60 min. 0 - nie wyświetlaj czasu",</v>
+        <v>"READ_EFF_FROM_FILE":"Odczytaj ustawienia efektów z pliku",</v>
       </c>
       <c r="L87" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"PERIOD_RUN_TIME":"Périodicité de sortie de temps dans une ligne 0-60 min. 0 - ne pas afficher l'heure",</v>
+        <v>"READ_EFF_FROM_FILE":"Lire les paramètres d'effet à partir d'un fichier",</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Display the time on a switched-off lamp",</v>
+        <v>"RUN_TEXT":"Running line text",</v>
       </c>
       <c r="I88" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Виводити час на вимкненій лампі",</v>
+        <v>"RUN_TEXT":"Текст рядка, що біжить",</v>
       </c>
       <c r="J88" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Mostrar la hora en una lámpara apagada",</v>
+        <v>"RUN_TEXT":"Texto de línea continua",</v>
       </c>
       <c r="K88" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Wyświetlaj czas na wyłączonej lampie",</v>
+        <v>"RUN_TEXT":"Uruchomiony tekst linii",</v>
       </c>
       <c r="L88" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Afficher l'heure sur une lampe éteinte",</v>
+        <v>"RUN_TEXT":"Texte en ligne courant",</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"HOUR_OF_NIGHT":"Hour of transition to night time",</v>
+        <v>"PERIOD_RUN_TIME":"Periodicity of time output in a line 0-60 min. 0 - do not display time",</v>
       </c>
       <c r="I89" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOUR_OF_NIGHT":"Година переходу на нічний час",</v>
+        <v>"PERIOD_RUN_TIME":"Періодичність виведення часу рядком 0-60 хв. 0 - не виводити час",</v>
       </c>
       <c r="J89" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOUR_OF_NIGHT":"Hora de transición a la noche",</v>
+        <v>"PERIOD_RUN_TIME":"Periodicidad de salida de tiempo en una línea 0-60 min. 0 - no muestra la hora",</v>
       </c>
       <c r="K89" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOUR_OF_NIGHT":"Godzina przejścia na porę nocną",</v>
+        <v>"PERIOD_RUN_TIME":"Częstotliwość czasu wyprowadzania w linii 0-60 min. 0 - nie wyświetlaj czasu",</v>
       </c>
       <c r="L89" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOUR_OF_NIGHT":"Heure de passage à la nuit",</v>
+        <v>"PERIOD_RUN_TIME":"Périodicité de sortie de temps dans une ligne 0-60 min. 0 - ne pas afficher l'heure",</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"BR_NIGHT":"Brightness at night",</v>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Display the time on a switched-off lamp",</v>
       </c>
       <c r="I90" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BR_NIGHT":"Яскравість у нічний час",</v>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Виводити час на вимкненій лампі",</v>
       </c>
       <c r="J90" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BR_NIGHT":"Brillo en la noche",</v>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Mostrar la hora en una lámpara apagada",</v>
       </c>
       <c r="K90" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BR_NIGHT":"Jasność w nocy",</v>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Wyświetlaj czas na wyłączonej lampie",</v>
       </c>
       <c r="L90" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BR_NIGHT":"Luminosité la nuit",</v>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Afficher l'heure sur une lampe éteinte",</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"VOICE_TIME_NIGHT":"Voice the time at night",</v>
+        <v>"HOUR_OF_NIGHT":"Hour of transition to night time",</v>
       </c>
       <c r="I91" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"VOICE_TIME_NIGHT":"Озвучувати час уночі",</v>
+        <v>"HOUR_OF_NIGHT":"Година переходу на нічний час",</v>
       </c>
       <c r="J91" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"VOICE_TIME_NIGHT":"Voz el tiempo en la noche",</v>
+        <v>"HOUR_OF_NIGHT":"Hora de transición a la noche",</v>
       </c>
       <c r="K91" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"VOICE_TIME_NIGHT":"Wypowiadaj czas w nocy",</v>
+        <v>"HOUR_OF_NIGHT":"Godzina przejścia na porę nocną",</v>
       </c>
       <c r="L91" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"VOICE_TIME_NIGHT":"Exprimez l'heure la nuit",</v>
+        <v>"HOUR_OF_NIGHT":"Heure de passage à la nuit",</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"SOUND_VOLUM":"The volume of sounding",</v>
+        <v>"BR_NIGHT":"Brightness at night",</v>
       </c>
       <c r="I92" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SOUND_VOLUM":"Гучність озвучування",</v>
+        <v>"BR_NIGHT":"Яскравість у нічний час",</v>
       </c>
       <c r="J92" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SOUND_VOLUM":"El volumen de sonido",</v>
+        <v>"BR_NIGHT":"Brillo en la noche",</v>
       </c>
       <c r="K92" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SOUND_VOLUM":"Głośność brzmienia",</v>
+        <v>"BR_NIGHT":"Jasność w nocy",</v>
       </c>
       <c r="L92" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SOUND_VOLUM":"Le volume sonore",</v>
+        <v>"BR_NIGHT":"Luminosité la nuit",</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"HOUR_OF_DAY":"Hour of transition to day time",</v>
+        <v>"VOICE_TIME_NIGHT":"Voice the time at night",</v>
       </c>
       <c r="I93" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOUR_OF_DAY":"Година переходу на денний час",</v>
+        <v>"VOICE_TIME_NIGHT":"Озвучувати час уночі",</v>
       </c>
       <c r="J93" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOUR_OF_DAY":"Hora de transición a la hora del día",</v>
+        <v>"VOICE_TIME_NIGHT":"Voz el tiempo en la noche",</v>
       </c>
       <c r="K93" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOUR_OF_DAY":"Godzina przejścia na czas dzienny",</v>
+        <v>"VOICE_TIME_NIGHT":"Wypowiadaj czas w nocy",</v>
       </c>
       <c r="L93" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOUR_OF_DAY":"Heure de passage à l'heure de jour",</v>
+        <v>"VOICE_TIME_NIGHT":"Exprimez l'heure la nuit",</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"BR_DAY":"Brightness during the day",</v>
+        <v>"SOUND_VOLUM":"The volume of sounding",</v>
       </c>
       <c r="I94" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BR_DAY":"Яскравість у денний час",</v>
+        <v>"SOUND_VOLUM":"Гучність озвучування",</v>
       </c>
       <c r="J94" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BR_DAY":"Brillo durante el día",</v>
+        <v>"SOUND_VOLUM":"El volumen de sonido",</v>
       </c>
       <c r="K94" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BR_DAY":"Jasność w ciągu dnia",</v>
+        <v>"SOUND_VOLUM":"Głośność brzmienia",</v>
       </c>
       <c r="L94" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BR_DAY":"Luminosité pendant la journée",</v>
+        <v>"SOUND_VOLUM":"Le volume sonore",</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"VOICE_TIME_DAY":"Voice the time of day",</v>
+        <v>"HOUR_OF_DAY":"Hour of transition to day time",</v>
       </c>
       <c r="I95" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"VOICE_TIME_DAY":"Озвучувати час вдень",</v>
+        <v>"HOUR_OF_DAY":"Година переходу на денний час",</v>
       </c>
       <c r="J95" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"VOICE_TIME_DAY":"Voz de la hora del día",</v>
+        <v>"HOUR_OF_DAY":"Hora de transición a la hora del día",</v>
       </c>
       <c r="K95" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"VOICE_TIME_DAY":"Wypowiedz porę dnia",</v>
+        <v>"HOUR_OF_DAY":"Godzina przejścia na czas dzienny",</v>
       </c>
       <c r="L95" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"VOICE_TIME_DAY":"Voix de l'heure du jour",</v>
+        <v>"HOUR_OF_DAY":"Heure de passage à l'heure de jour",</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"TIMER_ON_OFF":"Timer on/off of Lamp",</v>
+        <v>"BR_DAY":"Brightness during the day",</v>
       </c>
       <c r="I96" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"TIMER_ON_OFF":"Таймер вкл / відкл лампы.",</v>
+        <v>"BR_DAY":"Яскравість у денний час",</v>
       </c>
       <c r="J96" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"TIMER_ON_OFF":"Temporizador de encendido/apagado de la lámpara",</v>
+        <v>"BR_DAY":"Brillo durante el día",</v>
       </c>
       <c r="K96" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"TIMER_ON_OFF":"Włącznik/wyłącznik czasowy lampy",</v>
+        <v>"BR_DAY":"Jasność w ciągu dnia",</v>
       </c>
       <c r="L96" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"TIMER_ON_OFF":"Minuterie marche/arrêt de la lampe",</v>
+        <v>"BR_DAY":"Luminosité pendant la journée",</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>542</v>
+        <v>528</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"TIMER_RUN":" 'Run': 'Runing'",</v>
+        <v>"VOICE_TIME_DAY":"Voice the time of day",</v>
       </c>
       <c r="I97" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"TIMER_RUN":"'Запустити':'Запущено'",</v>
+        <v>"VOICE_TIME_DAY":"Озвучувати час вдень",</v>
       </c>
       <c r="J97" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"TIMER_RUN":" 'Correr': 'Lanzado'",</v>
+        <v>"VOICE_TIME_DAY":"Voz de la hora del día",</v>
       </c>
       <c r="K97" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"TIMER_RUN":" 'Uruchomić': 'Uruchomiona'",</v>
+        <v>"VOICE_TIME_DAY":"Wypowiedz porę dnia",</v>
       </c>
       <c r="L97" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"TIMER_RUN":" 'Courir' : 'Lancé'",</v>
+        <v>"VOICE_TIME_DAY":"Voix de l'heure du jour",</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"BUTTON_ACTIVE":"The button is activated",</v>
+        <v>"TIMER_ON_OFF":"Timer on/off of Lamp",</v>
       </c>
       <c r="I98" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"BUTTON_ACTIVE":"Кнопка активована",</v>
+        <v>"TIMER_ON_OFF":"Таймер вкл / відкл лампы.",</v>
       </c>
       <c r="J98" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"BUTTON_ACTIVE":"El botón está activado",</v>
+        <v>"TIMER_ON_OFF":"Temporizador de encendido/apagado de la lámpara",</v>
       </c>
       <c r="K98" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"BUTTON_ACTIVE":"Przycisk jest aktywny",</v>
+        <v>"TIMER_ON_OFF":"Włącznik/wyłącznik czasowy lampy",</v>
       </c>
       <c r="L98" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"BUTTON_ACTIVE":"Le bouton est activé",</v>
+        <v>"TIMER_ON_OFF":"Minuterie marche/arrêt de la lampe",</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>554</v>
+        <v>540</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>542</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"POWER_FAILURE":"Do not turn on after power failure",</v>
+        <v>"TIMER_RUN":" 'Run': 'Runing'",</v>
       </c>
       <c r="I99" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"POWER_FAILURE":"Не включати після знеструмлення",</v>
+        <v>"TIMER_RUN":"'Запустити':'Запущено'",</v>
       </c>
       <c r="J99" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"POWER_FAILURE":"No encender después de un corte de energía",</v>
+        <v>"TIMER_RUN":" 'Correr': 'Lanzado'",</v>
       </c>
       <c r="K99" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"POWER_FAILURE":"Nie włączaj po awarii zasilania",</v>
+        <v>"TIMER_RUN":" 'Uruchomić': 'Uruchomiona'",</v>
       </c>
       <c r="L99" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"POWER_FAILURE":"Ne pas allumer après une panne de courant",</v>
+        <v>"TIMER_RUN":" 'Courir' : 'Lancé'",</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"DARK_THEME":"Dark theme",</v>
+        <v>"BUTTON_ACTIVE":"The button is activated",</v>
       </c>
       <c r="I100" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"DARK_THEME":"Темна тема",</v>
+        <v>"BUTTON_ACTIVE":"Кнопка активована",</v>
       </c>
       <c r="J100" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"DARK_THEME":"tema oscuro",</v>
+        <v>"BUTTON_ACTIVE":"El botón está activado",</v>
       </c>
       <c r="K100" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"DARK_THEME":"ciemny schemat",</v>
+        <v>"BUTTON_ACTIVE":"Przycisk jest aktywny",</v>
       </c>
       <c r="L100" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"DARK_THEME":"Thème sombre",</v>
+        <v>"BUTTON_ACTIVE":"Le bouton est activé",</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"AUTO_TIMER":"Automatic lamp shutdown timer (for the forgetful)",</v>
+        <v>"POWER_FAILURE":"Do not turn on after power failure",</v>
       </c>
       <c r="I101" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"AUTO_TIMER":"Автоматичний таймер відключення лампи (для забудькуватих)",</v>
+        <v>"POWER_FAILURE":"Не включати після знеструмлення",</v>
       </c>
       <c r="J101" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"AUTO_TIMER":"Temporizador de apagado automático de la lámpara (para los olvidadizos)",</v>
+        <v>"POWER_FAILURE":"No encender después de un corte de energía",</v>
       </c>
       <c r="K101" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"AUTO_TIMER":"Automatyczny wyłącznik czasowy lampy (dla zapominalskich)",</v>
+        <v>"POWER_FAILURE":"Nie włączaj po awarii zasilania",</v>
       </c>
       <c r="L101" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"AUTO_TIMER":"Minuterie d'arrêt automatique de la lampe (pour les oublieux)",</v>
+        <v>"POWER_FAILURE":"Ne pas allumer après une panne de courant",</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"NOT_OFF":"Do not turn off",</v>
+        <v>"DARK_THEME":"Dark theme",</v>
       </c>
       <c r="I102" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"NOT_OFF":"Не вимикати",</v>
+        <v>"DARK_THEME":"Темна тема",</v>
       </c>
       <c r="J102" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"NOT_OFF":"No apagar",</v>
+        <v>"DARK_THEME":"tema oscuro",</v>
       </c>
       <c r="K102" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"NOT_OFF":"Nie wyłączać",</v>
+        <v>"DARK_THEME":"ciemny schemat",</v>
       </c>
       <c r="L102" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"NOT_OFF":"Ne pas eteindre",</v>
+        <v>"DARK_THEME":"Thème sombre",</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"HOURS":"hours",</v>
+        <v>"AUTO_TIMER":"Automatic lamp shutdown timer (for the forgetful)",</v>
       </c>
       <c r="I103" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOURS":"годин",</v>
+        <v>"AUTO_TIMER":"Автоматичний таймер відключення лампи (для забудькуватих)",</v>
       </c>
       <c r="J103" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOURS":"horas",</v>
+        <v>"AUTO_TIMER":"Temporizador de apagado automático de la lámpara (para los olvidadizos)",</v>
       </c>
       <c r="K103" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOURS":"godziny",</v>
+        <v>"AUTO_TIMER":"Automatyczny wyłącznik czasowy lampy (dla zapominalskich)",</v>
       </c>
       <c r="L103" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOURS":"heures",</v>
+        <v>"AUTO_TIMER":"Minuterie d'arrêt automatique de la lampe (pour les oublieux)",</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"HOUR":"hour",</v>
+        <v>"NOT_OFF":"Do not turn off",</v>
       </c>
       <c r="I104" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOUR":"година",</v>
+        <v>"NOT_OFF":"Не вимикати",</v>
       </c>
       <c r="J104" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOUR":"hora",</v>
+        <v>"NOT_OFF":"No apagar",</v>
       </c>
       <c r="K104" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOUR":"godzina",</v>
+        <v>"NOT_OFF":"Nie wyłączać",</v>
       </c>
       <c r="L104" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOUR":"heure",</v>
+        <v>"NOT_OFF":"Ne pas eteindre",</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>575</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>577</v>
@@ -6537,551 +6573,631 @@
       <c r="G105" s="17"/>
       <c r="H105" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"HOURS2":"hours",</v>
+        <v>"HOURS":"hours",</v>
       </c>
       <c r="I105" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"HOURS2":"години",</v>
+        <v>"HOURS":"годин",</v>
       </c>
       <c r="J105" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"HOURS2":"horas",</v>
+        <v>"HOURS":"horas",</v>
       </c>
       <c r="K105" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"HOURS2":"godziny",</v>
+        <v>"HOURS":"godziny",</v>
       </c>
       <c r="L105" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"HOURS2":"heures",</v>
+        <v>"HOURS":"heures",</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G106" s="17"/>
       <c r="H106" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Control of several lamps",</v>
+        <v>"HOUR":"hour",</v>
       </c>
       <c r="I106" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Управління кількома лампами",</v>
+        <v>"HOUR":"година",</v>
       </c>
       <c r="J106" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Control de varias lámparas",</v>
+        <v>"HOUR":"hora",</v>
       </c>
       <c r="K106" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Sterowanie kilkoma lampami",</v>
+        <v>"HOUR":"godzina",</v>
       </c>
       <c r="L106" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Commande de plusieurs lampes",</v>
+        <v>"HOUR":"heure",</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"SOUND_EFF_SET":"Sound effects settings",</v>
+        <v>"HOURS2":"hours",</v>
       </c>
       <c r="I107" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SOUND_EFF_SET":"Налаштування озвучування ефектів",</v>
+        <v>"HOURS2":"години",</v>
       </c>
       <c r="J107" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SOUND_EFF_SET":"Ajustes de efectos de sonido",</v>
+        <v>"HOURS2":"horas",</v>
       </c>
       <c r="K107" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SOUND_EFF_SET":"Ustawienia efektów dźwiękowych",</v>
+        <v>"HOURS2":"godziny",</v>
       </c>
       <c r="L107" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SOUND_EFF_SET":"Paramètres des effets sonores",</v>
+        <v>"HOURS2":"heures",</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"SNAKE":"Snake",</v>
+        <v>"CONTROL_SEVERAL_LAMPS":"Control of several lamps",</v>
       </c>
       <c r="I108" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"SNAKE":"Змійка",</v>
+        <v>"CONTROL_SEVERAL_LAMPS":"Управління кількома лампами",</v>
       </c>
       <c r="J108" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"SNAKE":"Serpiente",</v>
+        <v>"CONTROL_SEVERAL_LAMPS":"Control de varias lámparas",</v>
       </c>
       <c r="K108" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"SNAKE":"Wąż",</v>
+        <v>"CONTROL_SEVERAL_LAMPS":"Sterowanie kilkoma lampami",</v>
       </c>
       <c r="L108" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"SNAKE":"Serpent",</v>
+        <v>"CONTROL_SEVERAL_LAMPS":"Commande de plusieurs lampes",</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="G109" s="17"/>
       <c r="H109" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"PARALLEL":"Parallel",</v>
+        <v>"SOUND_EFF_SET":"Sound effects settings",</v>
       </c>
       <c r="I109" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"PARALLEL":"Паралельна",</v>
+        <v>"SOUND_EFF_SET":"Налаштування озвучування ефектів",</v>
       </c>
       <c r="J109" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"PARALLEL":"Paralela",</v>
+        <v>"SOUND_EFF_SET":"Ajustes de efectos de sonido",</v>
       </c>
       <c r="K109" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"PARALLEL":"Równoległy",</v>
+        <v>"SOUND_EFF_SET":"Ustawienia efektów dźwiękowych",</v>
       </c>
       <c r="L109" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"PARALLEL":"Parallèle",</v>
+        <v>"SOUND_EFF_SET":"Paramètres des effets sonores",</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A110" s="25" t="s">
-        <v>612</v>
+      <c r="A110" s="19" t="s">
+        <v>600</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"0_0":"LL corner - to the right",</v>
+        <v>"SNAKE":"Snake",</v>
       </c>
       <c r="I110" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"0_0":"Кут ЛН - вправо",</v>
+        <v>"SNAKE":"Змійка",</v>
       </c>
       <c r="J110" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"0_0":"Esquina LL - a la derecha",</v>
+        <v>"SNAKE":"Serpiente",</v>
       </c>
       <c r="K110" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"0_0":"Narożnik LL - w prawo",</v>
+        <v>"SNAKE":"Wąż",</v>
       </c>
       <c r="L110" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"0_0":"Coin LL - à droite",</v>
+        <v>"SNAKE":"Serpent",</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A111" s="25" t="s">
-        <v>618</v>
+      <c r="A111" s="19" t="s">
+        <v>606</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="G111" s="17"/>
       <c r="H111" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"0_1":"LL corner - up",</v>
+        <v>"PARALLEL":"Parallel",</v>
       </c>
       <c r="I111" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"0_1":"Кут ЛН - вгору",</v>
+        <v>"PARALLEL":"Паралельна",</v>
       </c>
       <c r="J111" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"0_1":"Esquina LL - arriba",</v>
+        <v>"PARALLEL":"Paralela",</v>
       </c>
       <c r="K111" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"0_1":"Narożnik LL - do góry",</v>
+        <v>"PARALLEL":"Równoległy",</v>
       </c>
       <c r="L111" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"0_1":"Coin LL - vers le haut",</v>
+        <v>"PARALLEL":"Parallèle",</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="25" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="G112" s="17"/>
       <c r="H112" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"1_0":"UL corner -  to the right",</v>
+        <v>"0_0":"LL corner - to the right",</v>
       </c>
       <c r="I112" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"1_0":"Кут ЛВ - вправо",</v>
+        <v>"0_0":"Кут ЛН - вправо",</v>
       </c>
       <c r="J112" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"1_0":"Esquina UL - a la derecha",</v>
+        <v>"0_0":"Esquina LL - a la derecha",</v>
       </c>
       <c r="K112" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"1_0":"Narożnik UL - w prawo",</v>
+        <v>"0_0":"Narożnik LL - w prawo",</v>
       </c>
       <c r="L112" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"1_0":"Coin UL - à droite",</v>
+        <v>"0_0":"Coin LL - à droite",</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="25" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="G113" s="17"/>
       <c r="H113" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"1_3":"UL corner - down",</v>
+        <v>"0_1":"LL corner - up",</v>
       </c>
       <c r="I113" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"1_3":"Кут ЛВ - вниз",</v>
+        <v>"0_1":"Кут ЛН - вгору",</v>
       </c>
       <c r="J113" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"1_3":"Esquina UL - abajo",</v>
+        <v>"0_1":"Esquina LL - arriba",</v>
       </c>
       <c r="K113" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"1_3":"Narożnik UL - dół",</v>
+        <v>"0_1":"Narożnik LL - do góry",</v>
       </c>
       <c r="L113" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"1_3":"Coin UL - vers le bas",</v>
+        <v>"0_1":"Coin LL - vers le haut",</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="25" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"2_2":"UR corner - to the  left",</v>
+        <v>"1_0":"UL corner -  to the right",</v>
       </c>
       <c r="I114" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"2_2":"Кут ПВ - вліво",</v>
+        <v>"1_0":"Кут ЛВ - вправо",</v>
       </c>
       <c r="J114" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"2_2":"Esquina UR - a la izquierda",</v>
+        <v>"1_0":"Esquina UL - a la derecha",</v>
       </c>
       <c r="K114" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"2_2":"Narożnik UR - w lewo",</v>
+        <v>"1_0":"Narożnik UL - w prawo",</v>
       </c>
       <c r="L114" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"2_2":"Coin UR - à gauche",</v>
+        <v>"1_0":"Coin UL - à droite",</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="25" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="G115" s="17"/>
       <c r="H115" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"2_3":"UR corner - down",</v>
+        <v>"1_3":"UL corner - down",</v>
       </c>
       <c r="I115" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"2_3":"Кут ПВ - вниз",</v>
+        <v>"1_3":"Кут ЛВ - вниз",</v>
       </c>
       <c r="J115" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"2_3":"Esquina UR - abajo",</v>
+        <v>"1_3":"Esquina UL - abajo",</v>
       </c>
       <c r="K115" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"2_3":"Narożnik UR - dół",</v>
+        <v>"1_3":"Narożnik UL - dół",</v>
       </c>
       <c r="L115" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"2_3":"Coin UR - vers le bas",</v>
+        <v>"1_3":"Coin UL - vers le bas",</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="25" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="19" t="str">
         <f t="shared" si="30"/>
-        <v>"3_2":"LR corner - to the  left",</v>
+        <v>"2_2":"UR corner - to the  left",</v>
       </c>
       <c r="I116" s="21" t="str">
         <f t="shared" si="31"/>
-        <v>"3_2":"Кут ПН - вліво",</v>
+        <v>"2_2":"Кут ПВ - вліво",</v>
       </c>
       <c r="J116" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>"3_2":"Esquina LR - a la izquierda",</v>
+        <v>"2_2":"Esquina UR - a la izquierda",</v>
       </c>
       <c r="K116" s="19" t="str">
         <f t="shared" si="33"/>
-        <v>"3_2":"Narożnik LR - w lewo",</v>
+        <v>"2_2":"Narożnik UR - w lewo",</v>
       </c>
       <c r="L116" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>"3_2":"Coin LR - à gauche",</v>
+        <v>"2_2":"Coin UR - à gauche",</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="25" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="19" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",B117,"""")</f>
+        <f t="shared" si="30"/>
+        <v>"2_3":"UR corner - down",</v>
+      </c>
+      <c r="I117" s="21" t="str">
+        <f t="shared" si="31"/>
+        <v>"2_3":"Кут ПВ - вниз",</v>
+      </c>
+      <c r="J117" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v>"2_3":"Esquina UR - abajo",</v>
+      </c>
+      <c r="K117" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>"2_3":"Narożnik UR - dół",</v>
+      </c>
+      <c r="L117" s="22" t="str">
+        <f t="shared" si="34"/>
+        <v>"2_3":"Coin UR - vers le bas",</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A118" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="G118" s="17"/>
+      <c r="H118" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>"3_2":"LR corner - to the  left",</v>
+      </c>
+      <c r="I118" s="21" t="str">
+        <f t="shared" si="31"/>
+        <v>"3_2":"Кут ПН - вліво",</v>
+      </c>
+      <c r="J118" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v>"3_2":"Esquina LR - a la izquierda",</v>
+      </c>
+      <c r="K118" s="19" t="str">
+        <f t="shared" si="33"/>
+        <v>"3_2":"Narożnik LR - w lewo",</v>
+      </c>
+      <c r="L118" s="22" t="str">
+        <f t="shared" si="34"/>
+        <v>"3_2":"Coin LR - à gauche",</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A119" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="G119" s="17"/>
+      <c r="H119" s="19" t="str">
+        <f>CONCATENATE("""",A119,"""",":","""",B119,"""")</f>
         <v>"3_1":"LR corner - up"</v>
       </c>
-      <c r="I117" s="21" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",C117,"""")</f>
+      <c r="I119" s="21" t="str">
+        <f>CONCATENATE("""",A119,"""",":","""",C119,"""")</f>
         <v>"3_1":"Кут ПН - вгору"</v>
       </c>
-      <c r="J117" s="19" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",D117,"""")</f>
+      <c r="J119" s="19" t="str">
+        <f>CONCATENATE("""",A119,"""",":","""",D119,"""")</f>
         <v>"3_1":"Esquina LR - arriba"</v>
       </c>
-      <c r="K117" s="19" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",E117,"""")</f>
+      <c r="K119" s="19" t="str">
+        <f>CONCATENATE("""",A119,"""",":","""",E119,"""")</f>
         <v>"3_1":"Narożnik LR - do góry"</v>
       </c>
-      <c r="L117" s="22" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",F117,"""")</f>
+      <c r="L119" s="22" t="str">
+        <f>CONCATENATE("""",A119,"""",":","""",F119,"""")</f>
         <v>"3_1":"Coin LR - vers le haut"</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A118" s="19" t="s">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A120" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="19" t="s">
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="I118" s="21" t="s">
+      <c r="I120" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="J118" s="19" t="s">
+      <c r="J120" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="K118" s="21" t="s">
+      <c r="K120" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="L118" s="26" t="s">
+      <c r="L120" s="26" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G119" s="27"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1">
-      <c r="J120" s="16"/>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+      <c r="G121" s="27"/>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J122" s="16"/>
+    </row>
     <row r="123" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="124" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="125" spans="1:12" ht="15.75" customHeight="1"/>
@@ -7110,12 +7226,8 @@
     <row r="148" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="149" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="150" spans="11:11" ht="15.75" customHeight="1"/>
-    <row r="151" spans="11:11" ht="15.75" customHeight="1">
-      <c r="K151" s="21"/>
-    </row>
-    <row r="152" spans="11:11" ht="15.75" customHeight="1">
-      <c r="K152" s="21"/>
-    </row>
+    <row r="151" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="152" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="153" spans="11:11" ht="15.75" customHeight="1">
       <c r="K153" s="21"/>
     </row>
@@ -7158,8 +7270,12 @@
     <row r="166" spans="11:11" ht="15.75" customHeight="1">
       <c r="K166" s="21"/>
     </row>
-    <row r="167" spans="11:11" ht="15.75" customHeight="1"/>
-    <row r="168" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="167" spans="11:11" ht="15.75" customHeight="1">
+      <c r="K167" s="21"/>
+    </row>
+    <row r="168" spans="11:11" ht="15.75" customHeight="1">
+      <c r="K168" s="21"/>
+    </row>
     <row r="169" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="170" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="171" spans="11:11" ht="15.75" customHeight="1"/>
@@ -7991,18 +8107,11 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:M150"/>
+  <autoFilter ref="A1:M152"/>
   <customSheetViews>
-    <customSheetView guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K150"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
-        </ext>
-      </extLst>
-    </customSheetView>
     <customSheetView guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A2:K150">
@@ -8124,6 +8233,15 @@
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="300842063"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:K150"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
         </ext>
       </extLst>
     </customSheetView>

--- a/FieryLedLampMultilingual/Language.xlsx
+++ b/FieryLedLampMultilingual/Language.xlsx
@@ -18,8 +18,8 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Фильтр 2" guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Фильтр 1" guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Фильтр 2" guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -251,9 +251,6 @@
     <t>S_VOLUM</t>
   </si>
   <si>
-    <t>Sound Volum</t>
-  </si>
-  <si>
     <t>Гучність</t>
   </si>
   <si>
@@ -2052,6 +2049,9 @@
   </si>
   <si>
     <t>Hardware Setings</t>
+  </si>
+  <si>
+    <t>Sound Volume</t>
   </si>
 </sst>
 </file>
@@ -2435,9 +2435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2964,24 +2964,24 @@
         <v>72</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>"S_VOLUM":"Sound Volum",</v>
+        <v>"S_VOLUM":"Sound Volume",</v>
       </c>
       <c r="I13" s="21" t="str">
         <f t="shared" si="1"/>
@@ -3002,22 +3002,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="19" t="str">
@@ -3043,22 +3043,22 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="19" t="str">
@@ -3095,22 +3095,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="19" t="str">
@@ -3136,22 +3136,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="19" t="str">
@@ -3177,22 +3177,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="19" t="str">
@@ -3229,22 +3229,22 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="19" t="str">
@@ -3270,22 +3270,22 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="19" t="str">
@@ -3311,22 +3311,22 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>125</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="19" t="str">
@@ -3352,22 +3352,22 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="20" t="s">
         <v>130</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>131</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="19" t="str">
@@ -3393,22 +3393,22 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>137</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="19" t="str">
@@ -3434,22 +3434,22 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="20" t="s">
         <v>142</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>143</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="19" t="str">
@@ -3475,22 +3475,22 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="19" t="str">
@@ -3516,22 +3516,22 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="F28" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="19" t="str">
@@ -3557,22 +3557,22 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="F29" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="19" t="str">
@@ -3598,22 +3598,22 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="19" t="str">
@@ -3639,22 +3639,22 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="19" t="str">
@@ -3680,22 +3680,22 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="D32" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="19" t="str">
@@ -3721,22 +3721,22 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="D33" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="F33" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="19" t="str">
@@ -3762,22 +3762,22 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="19" t="str">
@@ -3803,22 +3803,22 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="20" t="s">
         <v>196</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>197</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="19" t="str">
@@ -3844,22 +3844,22 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D36" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="F36" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>203</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="19" t="str">
@@ -3885,22 +3885,22 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>209</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="19" t="str">
@@ -3926,22 +3926,22 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>214</v>
-      </c>
       <c r="F38" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="19" t="str">
@@ -3978,22 +3978,22 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="F40" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="19" t="str">
@@ -4019,22 +4019,22 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="D41" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="F41" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>226</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="19" t="str">
@@ -4060,22 +4060,22 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="F42" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="19" t="str">
@@ -4101,22 +4101,22 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="D43" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F43" s="20" t="s">
         <v>237</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>238</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="19" t="str">
@@ -4153,22 +4153,22 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="F45" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>244</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="19" t="str">
@@ -4194,22 +4194,22 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="F46" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="19" t="str">
@@ -4235,22 +4235,22 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="F47" s="20" t="s">
         <v>255</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>256</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="19" t="str">
@@ -4276,22 +4276,22 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>262</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="19" t="str">
@@ -4328,30 +4328,30 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="F50" s="20" t="s">
         <v>267</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="19" t="str">
-        <f t="shared" ref="H50:H75" si="25">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
+        <f t="shared" ref="H50:H74" si="25">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
         <v>"USE_PASS":"Use a password to access this page",</v>
       </c>
       <c r="I50" s="21" t="str">
-        <f t="shared" ref="I50:I75" si="26">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
+        <f t="shared" ref="I50:I74" si="26">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
         <v>"USE_PASS":"Використовувати пароль для доступу до цієї сторінки",</v>
       </c>
       <c r="J50" s="19" t="str">
@@ -4369,22 +4369,22 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="D51" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="E51" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="20" t="s">
         <v>273</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>274</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="19" t="str">
@@ -4410,22 +4410,22 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="D52" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="F52" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>280</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="19" t="str">
@@ -4451,22 +4451,22 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="C53" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="D53" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="F53" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>286</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="19" t="str">
@@ -4492,22 +4492,22 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="F54" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>292</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="19" t="str">
@@ -4533,22 +4533,22 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="D55" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="E55" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="F55" s="20" t="s">
         <v>297</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="19" t="str">
@@ -4574,22 +4574,22 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="E56" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="F56" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="19" t="str">
@@ -4615,22 +4615,22 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="E57" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="F57" s="20" t="s">
         <v>309</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>310</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="19" t="str">
@@ -4656,22 +4656,22 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="D58" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="E58" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="F58" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="19" t="str">
@@ -4697,22 +4697,22 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="D59" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="E59" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="F59" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="19" t="str">
@@ -4738,22 +4738,22 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="D60" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="E60" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="F60" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="19" t="str">
@@ -4779,22 +4779,22 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="D61" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="E61" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="F61" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="19" t="str">
@@ -4820,22 +4820,22 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="D62" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="E62" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="F62" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="19" t="str">
@@ -4861,22 +4861,22 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="D63" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="E63" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="F63" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="19" t="str">
@@ -4902,22 +4902,22 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D64" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="F64" s="20" t="s">
         <v>351</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>352</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="19" t="str">
@@ -4943,22 +4943,22 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="D65" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="E65" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="F65" s="20" t="s">
         <v>357</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>358</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="19" t="str">
@@ -4984,22 +4984,22 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="E66" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="F66" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="19" t="str">
@@ -5025,22 +5025,22 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="D67" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="E67" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="F67" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="19" t="str">
@@ -5066,22 +5066,22 @@
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="D68" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="E68" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="F68" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>376</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="19" t="str">
@@ -5107,22 +5107,22 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="D69" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="F69" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="19" t="str">
@@ -5148,22 +5148,22 @@
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="D70" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="E70" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="F70" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>388</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="19" t="str">
@@ -5189,22 +5189,22 @@
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="D71" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="E71" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="F71" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="19" t="str">
@@ -5230,22 +5230,22 @@
     </row>
     <row r="72" spans="1:12" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="F72" s="22" t="s">
         <v>668</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>671</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>669</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="19" t="str">
@@ -5271,22 +5271,22 @@
     </row>
     <row r="73" spans="1:12" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="F73" s="23" t="s">
         <v>666</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>667</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="19" t="str">
@@ -5312,22 +5312,22 @@
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="C74" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="D74" s="16" t="s">
+      <c r="E74" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="F74" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>399</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="19" t="str">
@@ -5364,22 +5364,22 @@
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="D76" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="E76" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="F76" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="19" t="str">
@@ -5405,22 +5405,22 @@
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="D77" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="E77" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="F77" s="20" t="s">
         <v>410</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>411</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="19" t="str">
@@ -5446,22 +5446,22 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="D78" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="E78" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="F78" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>417</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="19" t="str">
@@ -5487,22 +5487,22 @@
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="D79" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="E79" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="F79" s="20" t="s">
         <v>422</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>423</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="19" t="str">
@@ -5528,22 +5528,22 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="D80" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="E80" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="F80" s="23" t="s">
         <v>428</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>429</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="19" t="str">
@@ -5569,22 +5569,22 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="D81" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="E81" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="F81" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>435</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="19" t="str">
@@ -5610,22 +5610,22 @@
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="D82" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="E82" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="F82" s="20" t="s">
         <v>440</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>441</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="19" t="str">
@@ -5651,22 +5651,22 @@
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="D83" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="E83" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="F83" s="20" t="s">
         <v>446</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>447</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="19" t="str">
@@ -5692,22 +5692,22 @@
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="D84" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="E84" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="F84" s="20" t="s">
         <v>452</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>453</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="19" t="str">
@@ -5733,22 +5733,22 @@
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="D85" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="E85" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="F85" s="20" t="s">
         <v>458</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>459</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="19" t="str">
@@ -5774,22 +5774,22 @@
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="D86" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="F86" s="20" t="s">
         <v>464</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>465</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="19" t="str">
@@ -5815,22 +5815,22 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="C87" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="D87" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="F87" s="20" t="s">
         <v>470</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>471</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="19" t="str">
@@ -5856,22 +5856,22 @@
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="C88" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="D88" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="E88" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="F88" s="20" t="s">
         <v>476</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>477</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="19" t="str">
@@ -5897,22 +5897,22 @@
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="C89" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="D89" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="F89" s="20" t="s">
         <v>482</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>483</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="19" t="str">
@@ -5938,22 +5938,22 @@
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="C90" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="D90" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="E90" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="F90" s="20" t="s">
         <v>488</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>489</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="19" t="str">
@@ -5979,22 +5979,22 @@
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="C91" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="D91" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="E91" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="F91" s="20" t="s">
         <v>494</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>495</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="19" t="str">
@@ -6020,22 +6020,22 @@
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="C92" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="D92" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="F92" s="20" t="s">
         <v>500</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>501</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="19" t="str">
@@ -6061,22 +6061,22 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="C93" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="D93" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="E93" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="F93" s="20" t="s">
         <v>506</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>507</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="19" t="str">
@@ -6102,22 +6102,22 @@
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="C94" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="D94" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="E94" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="F94" s="20" t="s">
         <v>512</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>513</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="19" t="str">
@@ -6143,22 +6143,22 @@
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="C95" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="D95" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="E95" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="F95" s="20" t="s">
         <v>518</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>519</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="19" t="str">
@@ -6184,22 +6184,22 @@
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="C96" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="D96" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="E96" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="F96" s="20" t="s">
         <v>524</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>525</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="19" t="str">
@@ -6225,22 +6225,22 @@
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="C97" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="D97" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="E97" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="F97" s="20" t="s">
         <v>530</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>531</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="19" t="str">
@@ -6266,22 +6266,22 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="C98" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="D98" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="E98" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="F98" s="20" t="s">
         <v>536</v>
-      </c>
-      <c r="F98" s="20" t="s">
-        <v>537</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="19" t="str">
@@ -6307,22 +6307,22 @@
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="C99" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="D99" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="E99" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="F99" s="20" t="s">
         <v>542</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>543</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="19" t="str">
@@ -6348,22 +6348,22 @@
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="C100" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="D100" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="E100" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="F100" s="20" t="s">
         <v>548</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>549</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="19" t="str">
@@ -6389,22 +6389,22 @@
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="D101" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="E101" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="F101" s="20" t="s">
         <v>554</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>555</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="19" t="str">
@@ -6430,22 +6430,22 @@
     </row>
     <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="C102" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="D102" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="E102" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="F102" s="20" t="s">
         <v>560</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>561</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="19" t="str">
@@ -6471,22 +6471,22 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="C103" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="D103" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="E103" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="F103" s="20" t="s">
         <v>566</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>567</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="19" t="str">
@@ -6512,22 +6512,22 @@
     </row>
     <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="C104" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="D104" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="E104" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="F104" s="20" t="s">
         <v>572</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>573</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="19" t="str">
@@ -6553,22 +6553,22 @@
     </row>
     <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="C105" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="D105" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="E105" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="F105" s="20" t="s">
         <v>578</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>579</v>
       </c>
       <c r="G105" s="17"/>
       <c r="H105" s="19" t="str">
@@ -6594,22 +6594,22 @@
     </row>
     <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="C106" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="D106" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="E106" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="F106" s="20" t="s">
         <v>584</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>585</v>
       </c>
       <c r="G106" s="17"/>
       <c r="H106" s="19" t="str">
@@ -6635,22 +6635,22 @@
     </row>
     <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="B107" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>587</v>
-      </c>
       <c r="D107" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="F107" s="20" t="s">
         <v>578</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>579</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="19" t="str">
@@ -6676,22 +6676,22 @@
     </row>
     <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="C108" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="D108" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="E108" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="F108" s="20" t="s">
         <v>592</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>593</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="19" t="str">
@@ -6717,22 +6717,22 @@
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="C109" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="D109" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="E109" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="F109" s="20" t="s">
         <v>598</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>599</v>
       </c>
       <c r="G109" s="17"/>
       <c r="H109" s="19" t="str">
@@ -6758,22 +6758,22 @@
     </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="C110" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="D110" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="E110" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="F110" s="20" t="s">
         <v>604</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>605</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="19" t="str">
@@ -6799,22 +6799,22 @@
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="C111" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="D111" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="E111" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="20" t="s">
         <v>610</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>611</v>
       </c>
       <c r="G111" s="17"/>
       <c r="H111" s="19" t="str">
@@ -6840,22 +6840,22 @@
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="C112" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="D112" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="E112" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="F112" s="20" t="s">
         <v>616</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>617</v>
       </c>
       <c r="G112" s="17"/>
       <c r="H112" s="19" t="str">
@@ -6881,22 +6881,22 @@
     </row>
     <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="C113" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="D113" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="E113" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="F113" s="20" t="s">
         <v>622</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>623</v>
       </c>
       <c r="G113" s="17"/>
       <c r="H113" s="19" t="str">
@@ -6922,22 +6922,22 @@
     </row>
     <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="C114" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="D114" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="E114" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="F114" s="20" t="s">
         <v>628</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>629</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="19" t="str">
@@ -6963,22 +6963,22 @@
     </row>
     <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="D115" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="E115" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="F115" s="20" t="s">
         <v>634</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>635</v>
       </c>
       <c r="G115" s="17"/>
       <c r="H115" s="19" t="str">
@@ -7004,22 +7004,22 @@
     </row>
     <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="C116" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="D116" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="E116" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="F116" s="20" t="s">
         <v>640</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>641</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="19" t="str">
@@ -7045,22 +7045,22 @@
     </row>
     <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="C117" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="D117" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="E117" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="F117" s="20" t="s">
         <v>646</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>647</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="19" t="str">
@@ -7086,22 +7086,22 @@
     </row>
     <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="C118" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="D118" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="E118" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="F118" s="20" t="s">
         <v>652</v>
-      </c>
-      <c r="F118" s="20" t="s">
-        <v>653</v>
       </c>
       <c r="G118" s="17"/>
       <c r="H118" s="19" t="str">
@@ -7127,22 +7127,22 @@
     </row>
     <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="C119" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="D119" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="E119" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="F119" s="20" t="s">
         <v>658</v>
-      </c>
-      <c r="F119" s="20" t="s">
-        <v>659</v>
       </c>
       <c r="G119" s="17"/>
       <c r="H119" s="19" t="str">
@@ -7177,19 +7177,19 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
       <c r="H120" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K120" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75" customHeight="1">
@@ -8112,6 +8112,15 @@
   </sheetData>
   <autoFilter ref="A1:M152"/>
   <customSheetViews>
+    <customSheetView guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:K150"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
+        </ext>
+      </extLst>
+    </customSheetView>
     <customSheetView guid="{02F08554-2E03-4827-AA05-82E0997FBBA8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A2:K150">
@@ -8233,15 +8242,6 @@
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="300842063"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{3A6F2CDC-256D-4CA7-B8B0-EE39CA0997D0}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K150"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
         </ext>
       </extLst>
     </customSheetView>
